--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384629.1795748307</v>
+        <v>380008.8903023099</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30078951.32711399</v>
+        <v>30078951.327114</v>
       </c>
     </row>
     <row r="8">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>63.85446890545948</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>190.3762870366972</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,13 +1536,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>8.418162001706369</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>6.533166416582071</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>414.0104492743738</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>242.6319043826347</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>67.95137884018652</v>
       </c>
       <c r="G16" t="n">
-        <v>49.28522746479209</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>177.5152637093859</v>
       </c>
       <c r="E17" t="n">
-        <v>116.2219187368958</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>73.19486831308168</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>225.405819016607</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>46.07867164326831</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>178.5646117626622</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>154.1710506581898</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.72676424484017</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.1318546462614</v>
       </c>
       <c r="H23" t="n">
-        <v>272.7295024537921</v>
+        <v>264.0094831139044</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.244205714656</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.5982549383371</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>338.8412749381764</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>59.0064135475243</v>
+        <v>59.00641354752429</v>
       </c>
       <c r="T24" t="n">
         <v>135.7946146187175</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>28.50989202307473</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6237861316889</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.7286660639565</v>
       </c>
       <c r="I25" t="n">
-        <v>69.58187616634265</v>
+        <v>69.58187616634264</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.925897763816401</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>236.7587859127228</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3296614395885</v>
       </c>
       <c r="V25" t="n">
-        <v>91.95449335203627</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>118.8724238186079</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2572,7 +2572,7 @@
         <v>398.1318546462614</v>
       </c>
       <c r="H26" t="n">
-        <v>272.7295024537921</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>54.01563810363909</v>
+        <v>54.01563810363907</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.244205714656</v>
       </c>
       <c r="U26" t="n">
         <v>255.5982549383371</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>107.5732287909187</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>59.0064135475243</v>
+        <v>59.00641354752429</v>
       </c>
       <c r="T27" t="n">
         <v>135.7946146187175</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>86.82126034653726</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.6237861316889</v>
       </c>
       <c r="H28" t="n">
-        <v>133.7286660639565</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.58187616634265</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.925897763816401</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>151.5185442583318</v>
       </c>
       <c r="T28" t="n">
-        <v>177.1947350064269</v>
+        <v>236.7587859127228</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3296614395885</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>134.4371694525415</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>272.7295024537921</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>54.01563810363909</v>
+        <v>54.01563810363907</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.5982549383371</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>135.837968834709</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>59.0064135475243</v>
+        <v>59.00641354752429</v>
       </c>
       <c r="T30" t="n">
         <v>135.7946146187175</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.7286660639565</v>
+        <v>64.34841270088238</v>
       </c>
       <c r="I31" t="n">
-        <v>69.58187616634265</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.925897763816401</v>
+        <v>2.925897763816387</v>
       </c>
       <c r="S31" t="n">
-        <v>151.5185442583318</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>236.7587859127228</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>154.6288811288253</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3040,7 +3040,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>54.01563810363909</v>
+        <v>54.01563810363907</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>155.4270114825446</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>135.8379688347073</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>59.0064135475243</v>
+        <v>59.00641354752429</v>
       </c>
       <c r="T33" t="n">
         <v>135.7946146187175</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>39.75025929914286</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6237861316889</v>
       </c>
       <c r="H34" t="n">
         <v>133.7286660639565</v>
       </c>
       <c r="I34" t="n">
-        <v>69.58187616634265</v>
+        <v>69.58187616634264</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.925897763816401</v>
+        <v>2.925897763816387</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>91.9544933520374</v>
       </c>
       <c r="T34" t="n">
         <v>236.7587859127228</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3296614395885</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>215.0975143262369</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>398.1318546462614</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>272.7295024537921</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>54.01563810363909</v>
+        <v>54.01563810363907</v>
       </c>
       <c r="T35" t="n">
-        <v>209.244205714656</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5982549383371</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>353.7236025424041</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.0064135475243</v>
+        <v>59.00641354752429</v>
       </c>
       <c r="T36" t="n">
         <v>135.7946146187175</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.6237861316889</v>
       </c>
       <c r="H37" t="n">
-        <v>133.7286660639565</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.925897763816401</v>
+        <v>2.925897763816387</v>
       </c>
       <c r="S37" t="n">
-        <v>133.9726583587423</v>
+        <v>151.5185442583318</v>
       </c>
       <c r="T37" t="n">
-        <v>236.7587859127228</v>
+        <v>228.9656444564154</v>
       </c>
       <c r="U37" t="n">
         <v>277.3296614395885</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3508,7 +3508,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3517,10 +3517,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>349.9052326486243</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>272.7295024537921</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>54.01563810363907</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.244205714656</v>
       </c>
       <c r="U38" t="n">
         <v>255.5982549383371</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>232.9755809833882</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>59.0064135475243</v>
+        <v>59.00641354752429</v>
       </c>
       <c r="T39" t="n">
         <v>135.7946146187175</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>163.6237861316889</v>
       </c>
       <c r="H40" t="n">
-        <v>65.27075035786663</v>
+        <v>133.7286660639565</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.925897763816401</v>
+        <v>2.925897763816387</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>151.5185442583318</v>
       </c>
       <c r="T40" t="n">
         <v>236.7587859127228</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>46.74250150467982</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3757,7 +3757,7 @@
         <v>398.1318546462614</v>
       </c>
       <c r="H41" t="n">
-        <v>153.3559948370612</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>54.01563810363909</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>207.3716329407013</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>59.0064135475243</v>
+        <v>59.00641354752429</v>
       </c>
       <c r="T42" t="n">
         <v>135.7946146187175</v>
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>160.9500605625151</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3918,7 +3918,7 @@
         <v>133.7286660639565</v>
       </c>
       <c r="I43" t="n">
-        <v>69.58187616634265</v>
+        <v>69.58187616634264</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.925897763816401</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>151.5185442583318</v>
       </c>
       <c r="T43" t="n">
         <v>236.7587859127228</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>91.95449335203583</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>228.5472861620389</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>261.409048492985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>59.0064135475243</v>
+        <v>59.00641354752429</v>
       </c>
       <c r="T45" t="n">
         <v>135.7946146187175</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6237861316889</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>104.9424128882965</v>
+        <v>91.54225727111128</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>2.925897763816387</v>
       </c>
       <c r="S46" t="n">
         <v>151.5185442583318</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.2519252281125</v>
+        <v>527.6763596059603</v>
       </c>
       <c r="C11" t="n">
-        <v>316.2519252281125</v>
+        <v>100.7756296192604</v>
       </c>
       <c r="D11" t="n">
-        <v>316.2519252281125</v>
+        <v>100.7756296192604</v>
       </c>
       <c r="E11" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F11" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G11" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I11" t="n">
         <v>68.08893453872669</v>
@@ -5047,10 +5047,10 @@
         <v>366.70612912503</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5071,22 +5071,22 @@
         <v>1749.253343642253</v>
       </c>
       <c r="T11" t="n">
-        <v>1535.975759145523</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U11" t="n">
-        <v>1277.760618769164</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V11" t="n">
-        <v>920.271203895413</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W11" t="n">
-        <v>727.9719240603653</v>
+        <v>1352.8619939426</v>
       </c>
       <c r="X11" t="n">
-        <v>316.2519252281125</v>
+        <v>1352.8619939426</v>
       </c>
       <c r="Y11" t="n">
-        <v>316.2519252281125</v>
+        <v>947.5247238974904</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D12" t="n">
-        <v>372.0909253760272</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E12" t="n">
-        <v>267.3889916489644</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318686</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G12" t="n">
         <v>80.62417733004327</v>
       </c>
       <c r="H12" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I12" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J12" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>590.33890554562</v>
+        <v>734.4196047863161</v>
       </c>
       <c r="L12" t="n">
-        <v>766.977756376269</v>
+        <v>911.058455616965</v>
       </c>
       <c r="M12" t="n">
-        <v>976.252454857284</v>
+        <v>1120.33315409798</v>
       </c>
       <c r="N12" t="n">
-        <v>1193.4074366896</v>
+        <v>1337.488135930296</v>
       </c>
       <c r="O12" t="n">
-        <v>1388.451103677087</v>
+        <v>1532.531802917783</v>
       </c>
       <c r="P12" t="n">
         <v>1685.929917764136</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.360625738642</v>
+        <v>1780.360625738641</v>
       </c>
       <c r="R12" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S12" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U12" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V12" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W12" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>380.0686960138231</v>
+        <v>537.773707919852</v>
       </c>
       <c r="C13" t="n">
-        <v>208.0961328927391</v>
+        <v>365.801144798768</v>
       </c>
       <c r="D13" t="n">
-        <v>44.77936001950982</v>
+        <v>202.4843719255387</v>
       </c>
       <c r="E13" t="n">
-        <v>44.77936001950982</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F13" t="n">
-        <v>44.77936001950982</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G13" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H13" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I13" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J13" t="n">
         <v>148.0721041840598</v>
@@ -5205,46 +5205,46 @@
         <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>912.7564163623084</v>
+        <v>912.7564163623083</v>
       </c>
       <c r="M13" t="n">
-        <v>1010.809763939928</v>
+        <v>1167.912050167826</v>
       </c>
       <c r="N13" t="n">
-        <v>1107.808470031875</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O13" t="n">
-        <v>1238.993031259048</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1802.007452933977</v>
+        <v>1807.209145923066</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.530066266137</v>
+        <v>1807.209145923066</v>
       </c>
       <c r="T13" t="n">
-        <v>1405.539232097734</v>
+        <v>1807.209145923066</v>
       </c>
       <c r="U13" t="n">
-        <v>1405.539232097734</v>
+        <v>1527.067444405571</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.827764705763</v>
+        <v>1245.355977013599</v>
       </c>
       <c r="W13" t="n">
-        <v>848.975360878276</v>
+        <v>970.5035731861125</v>
       </c>
       <c r="X13" t="n">
-        <v>606.4114643240811</v>
+        <v>727.9396766319176</v>
       </c>
       <c r="Y13" t="n">
-        <v>380.0686960138231</v>
+        <v>727.9396766319176</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1290.893027445892</v>
+        <v>881.3692690695102</v>
       </c>
       <c r="C14" t="n">
-        <v>863.9922974591925</v>
+        <v>454.4685390828103</v>
       </c>
       <c r="D14" t="n">
-        <v>863.9922974591925</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="E14" t="n">
-        <v>863.9922974591925</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="F14" t="n">
-        <v>438.8681156485927</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J14" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250299</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L14" t="n">
         <v>598.9981372303101</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1749.253343642254</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T14" t="n">
         <v>1535.975759145523</v>
       </c>
       <c r="U14" t="n">
-        <v>1290.893027445892</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="V14" t="n">
-        <v>1290.893027445892</v>
+        <v>1277.760618769163</v>
       </c>
       <c r="W14" t="n">
-        <v>1290.893027445892</v>
+        <v>881.3692690695102</v>
       </c>
       <c r="X14" t="n">
-        <v>1290.893027445892</v>
+        <v>881.3692690695102</v>
       </c>
       <c r="Y14" t="n">
-        <v>1290.893027445892</v>
+        <v>881.3692690695102</v>
       </c>
     </row>
     <row r="15">
@@ -5339,37 +5339,37 @@
         <v>475.930883860742</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E15" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F15" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I15" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J15" t="n">
-        <v>141.4213503255156</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>267.1899758967556</v>
+        <v>628.9641045014106</v>
       </c>
       <c r="L15" t="n">
-        <v>716.1075311168602</v>
+        <v>805.6029553320595</v>
       </c>
       <c r="M15" t="n">
-        <v>925.3822295978753</v>
+        <v>1014.877653813075</v>
       </c>
       <c r="N15" t="n">
-        <v>1142.537211430192</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O15" t="n">
         <v>1427.076302632877</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>429.8935614701604</v>
+        <v>606.4114643240808</v>
       </c>
       <c r="C16" t="n">
-        <v>257.9209983490764</v>
+        <v>434.4389012029968</v>
       </c>
       <c r="D16" t="n">
-        <v>257.9209983490764</v>
+        <v>271.1221283297675</v>
       </c>
       <c r="E16" t="n">
-        <v>257.9209983490764</v>
+        <v>104.9139224826211</v>
       </c>
       <c r="F16" t="n">
-        <v>86.05922412363682</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="G16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J16" t="n">
         <v>148.0721041840598</v>
@@ -5442,16 +5442,16 @@
         <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>556.3346842424261</v>
+        <v>912.7564163623083</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.25223946253</v>
+        <v>1016.538552789927</v>
       </c>
       <c r="N16" t="n">
-        <v>1454.169794682635</v>
+        <v>1465.456108010032</v>
       </c>
       <c r="O16" t="n">
-        <v>1540.462922504959</v>
+        <v>1551.749235832356</v>
       </c>
       <c r="P16" t="n">
         <v>1622.490343973492</v>
@@ -5466,22 +5466,22 @@
         <v>1645.530066266137</v>
       </c>
       <c r="T16" t="n">
-        <v>1645.530066266137</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U16" t="n">
-        <v>1645.530066266137</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="V16" t="n">
-        <v>1363.818598874166</v>
+        <v>1123.827764705763</v>
       </c>
       <c r="W16" t="n">
-        <v>1088.966195046679</v>
+        <v>848.9753608782758</v>
       </c>
       <c r="X16" t="n">
-        <v>846.402298492484</v>
+        <v>606.4114643240808</v>
       </c>
       <c r="Y16" t="n">
-        <v>620.059530182226</v>
+        <v>606.4114643240808</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1005.696955387708</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="C17" t="n">
-        <v>578.7962254010081</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="D17" t="n">
-        <v>578.7962254010081</v>
+        <v>1569.944996461055</v>
       </c>
       <c r="E17" t="n">
-        <v>461.4003478889921</v>
+        <v>1143.968056608913</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839228</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872656</v>
+        <v>68.08893453872669</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149081</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K17" t="n">
         <v>366.70612912503</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="V17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="W17" t="n">
-        <v>1417.416954219961</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="X17" t="n">
-        <v>1005.696955387708</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="Y17" t="n">
-        <v>1005.696955387708</v>
+        <v>1749.253343642253</v>
       </c>
     </row>
     <row r="18">
@@ -5576,22 +5576,22 @@
         <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489642</v>
       </c>
       <c r="F18" t="n">
         <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004327</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968659</v>
+        <v>75.26691519968658</v>
       </c>
       <c r="J18" t="n">
         <v>141.4213503255156</v>
@@ -5606,7 +5606,7 @@
         <v>653.1035252084196</v>
       </c>
       <c r="N18" t="n">
-        <v>870.2585070407358</v>
+        <v>870.2585070407357</v>
       </c>
       <c r="O18" t="n">
         <v>1065.302174028222</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>338.577951503668</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="C19" t="n">
-        <v>338.577951503668</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="D19" t="n">
-        <v>338.577951503668</v>
+        <v>580.9868894240557</v>
       </c>
       <c r="E19" t="n">
-        <v>338.577951503668</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="F19" t="n">
-        <v>338.577951503668</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G19" t="n">
-        <v>173.104676471574</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839227</v>
       </c>
       <c r="J19" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>587.5520906000655</v>
+        <v>912.7564163623083</v>
       </c>
       <c r="M19" t="n">
-        <v>805.2876227700464</v>
+        <v>1207.074694722675</v>
       </c>
       <c r="N19" t="n">
-        <v>1254.205177990151</v>
+        <v>1304.073400814623</v>
       </c>
       <c r="O19" t="n">
-        <v>1703.122733210255</v>
+        <v>1390.366528636947</v>
       </c>
       <c r="P19" t="n">
         <v>1773.863841351391</v>
@@ -5703,22 +5703,22 @@
         <v>1645.530066266137</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.847420794817</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U19" t="n">
-        <v>1137.705719277321</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="V19" t="n">
-        <v>855.99425188535</v>
+        <v>1123.827764705763</v>
       </c>
       <c r="W19" t="n">
-        <v>581.1418480578629</v>
+        <v>1123.827764705763</v>
       </c>
       <c r="X19" t="n">
-        <v>338.577951503668</v>
+        <v>881.2638681515679</v>
       </c>
       <c r="Y19" t="n">
-        <v>338.577951503668</v>
+        <v>654.9210998413099</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>933.01362965107</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1128996643701</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D20" t="n">
-        <v>82.82027884937037</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E20" t="n">
-        <v>82.82027884937037</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F20" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872672</v>
       </c>
       <c r="J20" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250301</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M20" t="n">
-        <v>862.614037710348</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1749.253343642253</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U20" t="n">
-        <v>1749.253343642253</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V20" t="n">
-        <v>1749.253343642253</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="W20" t="n">
-        <v>1352.8619939426</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="X20" t="n">
-        <v>1352.8619939426</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="Y20" t="n">
-        <v>1352.8619939426</v>
+        <v>1310.669908556134</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432378</v>
       </c>
       <c r="C21" t="n">
-        <v>475.9308838607421</v>
+        <v>475.9308838607426</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760275</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489647</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318688</v>
       </c>
       <c r="G21" t="n">
-        <v>80.62417733004317</v>
+        <v>80.62417733004349</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968658</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
         <v>433.5238427951067</v>
@@ -5843,16 +5843,16 @@
         <v>945.2060176780107</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632878</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
-        <v>1674.905125453736</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R21" t="n">
         <v>1813.808303919614</v>
@@ -5861,10 +5861,10 @@
         <v>1749.847329510331</v>
       </c>
       <c r="T21" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U21" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V21" t="n">
         <v>1222.055408810128</v>
@@ -5873,10 +5873,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X21" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100082</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633006</v>
       </c>
     </row>
     <row r="22">
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.8832665156081</v>
+        <v>268.2052321498051</v>
       </c>
       <c r="C22" t="n">
-        <v>707.910703394524</v>
+        <v>268.2052321498051</v>
       </c>
       <c r="D22" t="n">
-        <v>544.5939305212947</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="E22" t="n">
-        <v>378.3857246741483</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="F22" t="n">
-        <v>206.5239504487087</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="G22" t="n">
-        <v>41.05067541661467</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839227</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839227</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.15038753583896</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>138.6345353799611</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L22" t="n">
-        <v>356.3700675499419</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M22" t="n">
-        <v>805.2876227700463</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1254.205177990151</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O22" t="n">
         <v>1703.122733210255</v>
@@ -5940,22 +5940,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T22" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U22" t="n">
-        <v>1813.808303919614</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V22" t="n">
-        <v>1813.808303919614</v>
+        <v>1011.964300841745</v>
       </c>
       <c r="W22" t="n">
-        <v>1538.955900092127</v>
+        <v>737.1118970142579</v>
       </c>
       <c r="X22" t="n">
-        <v>1296.392003537932</v>
+        <v>494.548000460063</v>
       </c>
       <c r="Y22" t="n">
-        <v>1070.049235227674</v>
+        <v>268.2052321498051</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1598.004208257786</v>
+        <v>716.0319638337434</v>
       </c>
       <c r="C23" t="n">
-        <v>1171.103478271086</v>
+        <v>716.0319638337434</v>
       </c>
       <c r="D23" t="n">
-        <v>747.8108574560868</v>
+        <v>716.0319638337434</v>
       </c>
       <c r="E23" t="n">
-        <v>747.8108574560868</v>
+        <v>716.0319638337434</v>
       </c>
       <c r="F23" t="n">
-        <v>322.686675645487</v>
+        <v>716.0319638337434</v>
       </c>
       <c r="G23" t="n">
-        <v>322.686675645487</v>
+        <v>313.8785753021661</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20232973256565</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="I23" t="n">
-        <v>95.58626090803114</v>
+        <v>95.58626090803125</v>
       </c>
       <c r="J23" t="n">
-        <v>248.2752632690085</v>
+        <v>248.2752632690087</v>
       </c>
       <c r="K23" t="n">
-        <v>485.3615064824206</v>
+        <v>485.361506482421</v>
       </c>
       <c r="L23" t="n">
-        <v>785.4844920902763</v>
+        <v>785.4844920902767</v>
       </c>
       <c r="M23" t="n">
         <v>1124.575424672078</v>
@@ -6010,31 +6010,31 @@
         <v>2064.66735911978</v>
       </c>
       <c r="Q23" t="n">
-        <v>2260.235160376344</v>
+        <v>2260.235160376345</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.116486628282</v>
+        <v>2148.758703078126</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.116486628282</v>
+        <v>1890.578647584856</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.116486628282</v>
+        <v>1533.089232711106</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.116486628282</v>
+        <v>1533.089232711106</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.116486628282</v>
+        <v>1121.369233878853</v>
       </c>
       <c r="Y23" t="n">
-        <v>2017.852572549316</v>
+        <v>716.0319638337434</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>601.8620670180831</v>
+        <v>601.8620670180832</v>
       </c>
       <c r="C24" t="n">
-        <v>484.3561635355878</v>
+        <v>484.3561635355879</v>
       </c>
       <c r="D24" t="n">
         <v>380.5162050508729</v>
@@ -6059,37 +6059,37 @@
         <v>182.1684410067143</v>
       </c>
       <c r="G24" t="n">
-        <v>89.28410784739393</v>
+        <v>89.28410784739395</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20232973256565</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="I24" t="n">
-        <v>70.65398850199563</v>
+        <v>94.1112943464075</v>
       </c>
       <c r="J24" t="n">
-        <v>158.536612153298</v>
+        <v>181.9939179977099</v>
       </c>
       <c r="K24" t="n">
-        <v>321.4421727295216</v>
+        <v>344.8994785739336</v>
       </c>
       <c r="L24" t="n">
-        <v>548.016215656803</v>
+        <v>571.473521501215</v>
       </c>
       <c r="M24" t="n">
-        <v>815.5629280237376</v>
+        <v>839.0202338681498</v>
       </c>
       <c r="N24" t="n">
-        <v>1092.532210555745</v>
+        <v>1115.989516400157</v>
       </c>
       <c r="O24" t="n">
-        <v>1342.294277011285</v>
+        <v>1365.751582855698</v>
       </c>
       <c r="P24" t="n">
-        <v>1539.608731490063</v>
+        <v>1563.066037334475</v>
       </c>
       <c r="Q24" t="n">
-        <v>1769.187109989768</v>
+        <v>1686.853655333835</v>
       </c>
       <c r="R24" t="n">
         <v>1816.913801993988</v>
@@ -6107,13 +6107,13 @@
         <v>1230.480688484973</v>
       </c>
       <c r="W24" t="n">
-        <v>1033.95931131819</v>
+        <v>1033.959311318191</v>
       </c>
       <c r="X24" t="n">
-        <v>870.4819650848534</v>
+        <v>870.4819650848535</v>
       </c>
       <c r="Y24" t="n">
-        <v>730.7890764381458</v>
+        <v>730.7890764381459</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.202381518645</v>
+        <v>625.198721880477</v>
       </c>
       <c r="C25" t="n">
-        <v>919.229818397561</v>
+        <v>453.226158759393</v>
       </c>
       <c r="D25" t="n">
-        <v>755.9130455243317</v>
+        <v>424.4282880290145</v>
       </c>
       <c r="E25" t="n">
-        <v>589.7048396771852</v>
+        <v>424.4282880290145</v>
       </c>
       <c r="F25" t="n">
-        <v>417.8430654517456</v>
+        <v>252.5665138035749</v>
       </c>
       <c r="G25" t="n">
         <v>252.5665138035749</v>
@@ -6144,55 +6144,55 @@
         <v>117.4870531329118</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20232973256565</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="J25" t="n">
-        <v>94.70811840285029</v>
+        <v>164.0903782358685</v>
       </c>
       <c r="K25" t="n">
-        <v>185.5931186296481</v>
+        <v>502.2579875766884</v>
       </c>
       <c r="L25" t="n">
-        <v>683.1432140273168</v>
+        <v>999.8080829743571</v>
       </c>
       <c r="M25" t="n">
-        <v>1194.181832324406</v>
+        <v>1128.085053215081</v>
       </c>
       <c r="N25" t="n">
-        <v>1718.718433727528</v>
+        <v>1254.588731776323</v>
       </c>
       <c r="O25" t="n">
-        <v>2209.966503446627</v>
+        <v>1745.836801495422</v>
       </c>
       <c r="P25" t="n">
-        <v>2304.026933974236</v>
+        <v>2152.653436596338</v>
       </c>
       <c r="Q25" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="R25" t="n">
-        <v>2357.161034341599</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="S25" t="n">
-        <v>2357.161034341599</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.010745540869</v>
+        <v>2120.966197827553</v>
       </c>
       <c r="U25" t="n">
-        <v>2118.010745540869</v>
+        <v>1840.835226676454</v>
       </c>
       <c r="V25" t="n">
-        <v>2025.12741892265</v>
+        <v>1559.123759284483</v>
       </c>
       <c r="W25" t="n">
-        <v>1750.275015095163</v>
+        <v>1284.271355456995</v>
       </c>
       <c r="X25" t="n">
-        <v>1507.711118540969</v>
+        <v>1041.707458902801</v>
       </c>
       <c r="Y25" t="n">
-        <v>1281.368350230711</v>
+        <v>815.3646905925427</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1270.037401359995</v>
+        <v>1727.357569913585</v>
       </c>
       <c r="C26" t="n">
-        <v>1270.037401359995</v>
+        <v>1300.456839926885</v>
       </c>
       <c r="D26" t="n">
-        <v>1270.037401359995</v>
+        <v>1300.456839926885</v>
       </c>
       <c r="E26" t="n">
-        <v>1149.964245987664</v>
+        <v>874.4799000747428</v>
       </c>
       <c r="F26" t="n">
-        <v>724.8400641770643</v>
+        <v>449.3557182641429</v>
       </c>
       <c r="G26" t="n">
-        <v>322.686675645487</v>
+        <v>47.20232973256565</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256565</v>
       </c>
       <c r="I26" t="n">
-        <v>95.58626090803136</v>
+        <v>95.58626090803091</v>
       </c>
       <c r="J26" t="n">
-        <v>248.2752632690091</v>
+        <v>248.2752632690084</v>
       </c>
       <c r="K26" t="n">
-        <v>485.3615064824213</v>
+        <v>485.3615064824206</v>
       </c>
       <c r="L26" t="n">
-        <v>785.4844920902769</v>
+        <v>785.4844920902765</v>
       </c>
       <c r="M26" t="n">
         <v>1124.575424672078</v>
@@ -6241,10 +6241,10 @@
         <v>1469.902946913269</v>
       </c>
       <c r="O26" t="n">
-        <v>1793.818953877266</v>
+        <v>1793.818953877267</v>
       </c>
       <c r="P26" t="n">
-        <v>2064.667359119779</v>
+        <v>2064.66735911978</v>
       </c>
       <c r="Q26" t="n">
         <v>2260.235160376344</v>
@@ -6256,22 +6256,22 @@
         <v>2305.555236018546</v>
       </c>
       <c r="T26" t="n">
-        <v>2305.555236018546</v>
+        <v>2094.197452468389</v>
       </c>
       <c r="U26" t="n">
-        <v>2047.375180525276</v>
+        <v>1836.017396975119</v>
       </c>
       <c r="V26" t="n">
-        <v>1689.885765651525</v>
+        <v>1836.017396975119</v>
       </c>
       <c r="W26" t="n">
-        <v>1689.885765651525</v>
+        <v>1727.357569913585</v>
       </c>
       <c r="X26" t="n">
-        <v>1689.885765651525</v>
+        <v>1727.357569913585</v>
       </c>
       <c r="Y26" t="n">
-        <v>1689.885765651525</v>
+        <v>1727.357569913585</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>89.28410784739393</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256565</v>
       </c>
       <c r="I27" t="n">
-        <v>70.65398850199561</v>
+        <v>94.11129434640748</v>
       </c>
       <c r="J27" t="n">
-        <v>158.536612153298</v>
+        <v>181.9939179977099</v>
       </c>
       <c r="K27" t="n">
-        <v>321.4421727295216</v>
+        <v>344.8994785739336</v>
       </c>
       <c r="L27" t="n">
-        <v>548.016215656803</v>
+        <v>571.473521501215</v>
       </c>
       <c r="M27" t="n">
-        <v>815.5629280237376</v>
+        <v>839.0202338681498</v>
       </c>
       <c r="N27" t="n">
-        <v>1092.532210555745</v>
+        <v>1115.989516400157</v>
       </c>
       <c r="O27" t="n">
-        <v>1342.294277011285</v>
+        <v>1365.751582855698</v>
       </c>
       <c r="P27" t="n">
-        <v>1539.608731490063</v>
+        <v>1563.066037334475</v>
       </c>
       <c r="Q27" t="n">
-        <v>1769.187109989768</v>
+        <v>1686.853655333835</v>
       </c>
       <c r="R27" t="n">
         <v>1816.913801993988</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.202381518645</v>
+        <v>472.1496872761003</v>
       </c>
       <c r="C28" t="n">
-        <v>919.229818397561</v>
+        <v>300.1771241550164</v>
       </c>
       <c r="D28" t="n">
-        <v>755.9130455243317</v>
+        <v>212.4788813807363</v>
       </c>
       <c r="E28" t="n">
-        <v>589.7048396771852</v>
+        <v>212.4788813807363</v>
       </c>
       <c r="F28" t="n">
-        <v>417.8430654517456</v>
+        <v>212.4788813807363</v>
       </c>
       <c r="G28" t="n">
-        <v>252.5665138035749</v>
+        <v>47.20232973256565</v>
       </c>
       <c r="H28" t="n">
-        <v>117.4870531329118</v>
+        <v>47.20232973256565</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256565</v>
       </c>
       <c r="J28" t="n">
-        <v>94.70811840285027</v>
+        <v>94.70811840285032</v>
       </c>
       <c r="K28" t="n">
-        <v>432.8757277436702</v>
+        <v>185.5931186296482</v>
       </c>
       <c r="L28" t="n">
-        <v>554.0369295501739</v>
+        <v>683.143214027317</v>
       </c>
       <c r="M28" t="n">
-        <v>1095.84938025372</v>
+        <v>1224.955664730863</v>
       </c>
       <c r="N28" t="n">
-        <v>1620.385981656842</v>
+        <v>1749.492266133985</v>
       </c>
       <c r="O28" t="n">
-        <v>1745.836801495421</v>
+        <v>2209.966503446627</v>
       </c>
       <c r="P28" t="n">
-        <v>2152.653436596337</v>
+        <v>2304.026933974236</v>
       </c>
       <c r="Q28" t="n">
         <v>2360.116486628282</v>
       </c>
       <c r="R28" t="n">
-        <v>2357.161034341599</v>
+        <v>2360.116486628282</v>
       </c>
       <c r="S28" t="n">
-        <v>2204.111999737223</v>
+        <v>2207.067452023907</v>
       </c>
       <c r="T28" t="n">
-        <v>2025.12741892265</v>
+        <v>1967.917163223177</v>
       </c>
       <c r="U28" t="n">
-        <v>2025.12741892265</v>
+        <v>1687.786192072077</v>
       </c>
       <c r="V28" t="n">
-        <v>2025.12741892265</v>
+        <v>1406.074724680106</v>
       </c>
       <c r="W28" t="n">
-        <v>1750.275015095163</v>
+        <v>1131.222320852619</v>
       </c>
       <c r="X28" t="n">
-        <v>1507.711118540969</v>
+        <v>888.6584242984239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1281.368350230711</v>
+        <v>662.315655988166</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>881.7744171196196</v>
+        <v>1748.496802197008</v>
       </c>
       <c r="C29" t="n">
-        <v>881.7744171196196</v>
+        <v>1321.596072210308</v>
       </c>
       <c r="D29" t="n">
-        <v>458.4817963046198</v>
+        <v>898.3034513953079</v>
       </c>
       <c r="E29" t="n">
-        <v>458.4817963046198</v>
+        <v>472.3265115431655</v>
       </c>
       <c r="F29" t="n">
-        <v>458.4817963046198</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="G29" t="n">
-        <v>322.686675645487</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="I29" t="n">
-        <v>95.58626090803108</v>
+        <v>95.58626090803125</v>
       </c>
       <c r="J29" t="n">
-        <v>248.2752632690084</v>
+        <v>248.2752632690087</v>
       </c>
       <c r="K29" t="n">
-        <v>485.3615064824206</v>
+        <v>485.361506482421</v>
       </c>
       <c r="L29" t="n">
-        <v>785.4844920902763</v>
+        <v>785.4844920902767</v>
       </c>
       <c r="M29" t="n">
-        <v>1124.575424672078</v>
+        <v>1124.575424672079</v>
       </c>
       <c r="N29" t="n">
-        <v>1469.902946913269</v>
+        <v>1469.90294691327</v>
       </c>
       <c r="O29" t="n">
-        <v>1793.818953877266</v>
+        <v>1793.818953877268</v>
       </c>
       <c r="P29" t="n">
-        <v>2064.667359119779</v>
+        <v>2064.66735911978</v>
       </c>
       <c r="Q29" t="n">
-        <v>2260.235160376343</v>
+        <v>2260.235160376345</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="S29" t="n">
-        <v>2305.555236018546</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="T29" t="n">
-        <v>2305.555236018546</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="U29" t="n">
-        <v>2047.375180525276</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="V29" t="n">
-        <v>1689.885765651525</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="W29" t="n">
-        <v>1293.494415951872</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="X29" t="n">
-        <v>881.7744171196196</v>
+        <v>2168.345166488538</v>
       </c>
       <c r="Y29" t="n">
-        <v>881.7744171196196</v>
+        <v>2168.345166488538</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>601.8620670180831</v>
+        <v>601.8620670180832</v>
       </c>
       <c r="C30" t="n">
-        <v>484.3561635355878</v>
+        <v>484.3561635355879</v>
       </c>
       <c r="D30" t="n">
         <v>380.5162050508729</v>
@@ -6533,37 +6533,37 @@
         <v>182.1684410067143</v>
       </c>
       <c r="G30" t="n">
-        <v>89.28410784739393</v>
+        <v>89.28410784739395</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="I30" t="n">
-        <v>94.11129434640746</v>
+        <v>70.98924871743473</v>
       </c>
       <c r="J30" t="n">
-        <v>181.9939179977098</v>
+        <v>158.8718723687371</v>
       </c>
       <c r="K30" t="n">
-        <v>344.8994785739335</v>
+        <v>321.7774329449609</v>
       </c>
       <c r="L30" t="n">
-        <v>571.4735215012148</v>
+        <v>548.3514758722423</v>
       </c>
       <c r="M30" t="n">
-        <v>921.3536885240833</v>
+        <v>815.8981882391771</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.32297105609</v>
+        <v>1092.867470771184</v>
       </c>
       <c r="O30" t="n">
-        <v>1448.085037511631</v>
+        <v>1342.629537226725</v>
       </c>
       <c r="P30" t="n">
-        <v>1645.399491990408</v>
+        <v>1539.943991705503</v>
       </c>
       <c r="Q30" t="n">
-        <v>1769.187109989768</v>
+        <v>1663.731609704862</v>
       </c>
       <c r="R30" t="n">
         <v>1816.913801993988</v>
@@ -6581,13 +6581,13 @@
         <v>1230.480688484973</v>
       </c>
       <c r="W30" t="n">
-        <v>1033.95931131819</v>
+        <v>1033.959311318191</v>
       </c>
       <c r="X30" t="n">
-        <v>870.4819650848534</v>
+        <v>870.4819650848535</v>
       </c>
       <c r="Y30" t="n">
-        <v>730.7890764381458</v>
+        <v>730.7890764381459</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>587.8558497978883</v>
+        <v>622.2432695937937</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8832866768042</v>
+        <v>450.2707064727097</v>
       </c>
       <c r="D31" t="n">
-        <v>252.5665138035749</v>
+        <v>450.2707064727097</v>
       </c>
       <c r="E31" t="n">
-        <v>252.5665138035749</v>
+        <v>284.0625006255632</v>
       </c>
       <c r="F31" t="n">
-        <v>252.5665138035749</v>
+        <v>112.2007264001236</v>
       </c>
       <c r="G31" t="n">
-        <v>252.5665138035749</v>
+        <v>112.2007264001236</v>
       </c>
       <c r="H31" t="n">
-        <v>117.4870531329118</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="J31" t="n">
-        <v>172.6298350510712</v>
+        <v>94.70811840285032</v>
       </c>
       <c r="K31" t="n">
-        <v>263.514835277869</v>
+        <v>185.5931186296482</v>
       </c>
       <c r="L31" t="n">
-        <v>384.6760370843727</v>
+        <v>652.3693816208613</v>
       </c>
       <c r="M31" t="n">
-        <v>926.4884877879183</v>
+        <v>1194.181832324407</v>
       </c>
       <c r="N31" t="n">
-        <v>1451.02508919104</v>
+        <v>1718.718433727529</v>
       </c>
       <c r="O31" t="n">
-        <v>1942.27315891014</v>
+        <v>2209.966503446628</v>
       </c>
       <c r="P31" t="n">
-        <v>2152.653436596337</v>
+        <v>2304.026933974237</v>
       </c>
       <c r="Q31" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="R31" t="n">
-        <v>2357.161034341599</v>
+        <v>2357.1610343416</v>
       </c>
       <c r="S31" t="n">
-        <v>2204.111999737223</v>
+        <v>2357.1610343416</v>
       </c>
       <c r="T31" t="n">
-        <v>1964.961710936493</v>
+        <v>2118.01074554087</v>
       </c>
       <c r="U31" t="n">
-        <v>1684.830739785393</v>
+        <v>1837.87977438977</v>
       </c>
       <c r="V31" t="n">
-        <v>1403.119272393422</v>
+        <v>1556.168306997799</v>
       </c>
       <c r="W31" t="n">
-        <v>1246.928483374407</v>
+        <v>1281.315903170312</v>
       </c>
       <c r="X31" t="n">
-        <v>1004.364586820212</v>
+        <v>1038.752006616117</v>
       </c>
       <c r="Y31" t="n">
-        <v>778.0218185099538</v>
+        <v>812.4092383058594</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1748.496802197008</v>
+        <v>1323.372620386408</v>
       </c>
       <c r="C32" t="n">
-        <v>1321.596072210308</v>
+        <v>896.4718903997078</v>
       </c>
       <c r="D32" t="n">
-        <v>898.3034513953079</v>
+        <v>473.1792695847081</v>
       </c>
       <c r="E32" t="n">
-        <v>472.3265115431655</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20232973256563</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20232973256563</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20232973256563</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="I32" t="n">
-        <v>95.58626090803088</v>
+        <v>95.58626090803091</v>
       </c>
       <c r="J32" t="n">
-        <v>248.2752632690082</v>
+        <v>248.2752632690081</v>
       </c>
       <c r="K32" t="n">
-        <v>485.3615064824204</v>
+        <v>485.3615064824205</v>
       </c>
       <c r="L32" t="n">
-        <v>785.484492090276</v>
+        <v>785.4844920902763</v>
       </c>
       <c r="M32" t="n">
         <v>1124.575424672078</v>
       </c>
       <c r="N32" t="n">
-        <v>1469.902946913268</v>
+        <v>1469.902946913269</v>
       </c>
       <c r="O32" t="n">
-        <v>1793.818953877266</v>
+        <v>1793.818953877267</v>
       </c>
       <c r="P32" t="n">
-        <v>2064.667359119779</v>
+        <v>2064.66735911978</v>
       </c>
       <c r="Q32" t="n">
-        <v>2260.235160376343</v>
+        <v>2260.235160376345</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="S32" t="n">
-        <v>2305.555236018545</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="T32" t="n">
-        <v>2305.555236018545</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="U32" t="n">
-        <v>2305.555236018545</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="V32" t="n">
-        <v>2305.555236018545</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="W32" t="n">
-        <v>2305.555236018545</v>
+        <v>2148.558254723047</v>
       </c>
       <c r="X32" t="n">
-        <v>2305.555236018545</v>
+        <v>2148.558254723047</v>
       </c>
       <c r="Y32" t="n">
-        <v>2168.345166488538</v>
+        <v>1743.220984677938</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>601.8620670180831</v>
+        <v>601.8620670180832</v>
       </c>
       <c r="C33" t="n">
-        <v>484.3561635355878</v>
+        <v>484.3561635355879</v>
       </c>
       <c r="D33" t="n">
         <v>380.5162050508729</v>
@@ -6770,37 +6770,37 @@
         <v>182.1684410067143</v>
       </c>
       <c r="G33" t="n">
-        <v>89.28410784739391</v>
+        <v>89.28410784739395</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20232973256563</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="I33" t="n">
-        <v>70.6539885019956</v>
+        <v>94.1112943464075</v>
       </c>
       <c r="J33" t="n">
-        <v>158.536612153298</v>
+        <v>181.9939179977099</v>
       </c>
       <c r="K33" t="n">
-        <v>321.4421727295216</v>
+        <v>344.8994785739336</v>
       </c>
       <c r="L33" t="n">
-        <v>548.016215656803</v>
+        <v>571.473521501215</v>
       </c>
       <c r="M33" t="n">
-        <v>921.3536885240833</v>
+        <v>839.0202338681498</v>
       </c>
       <c r="N33" t="n">
-        <v>1198.32297105609</v>
+        <v>1115.989516400157</v>
       </c>
       <c r="O33" t="n">
-        <v>1448.085037511631</v>
+        <v>1365.751582855698</v>
       </c>
       <c r="P33" t="n">
-        <v>1645.399491990408</v>
+        <v>1563.066037334475</v>
       </c>
       <c r="Q33" t="n">
-        <v>1769.187109989768</v>
+        <v>1686.853655333835</v>
       </c>
       <c r="R33" t="n">
         <v>1816.913801993988</v>
@@ -6818,13 +6818,13 @@
         <v>1230.480688484973</v>
       </c>
       <c r="W33" t="n">
-        <v>1033.95931131819</v>
+        <v>1033.959311318191</v>
       </c>
       <c r="X33" t="n">
-        <v>870.4819650848534</v>
+        <v>870.4819650848535</v>
       </c>
       <c r="Y33" t="n">
-        <v>730.7890764381458</v>
+        <v>730.7890764381459</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>622.2432695937919</v>
+        <v>1091.202381518645</v>
       </c>
       <c r="C34" t="n">
-        <v>582.0914925239506</v>
+        <v>919.229818397561</v>
       </c>
       <c r="D34" t="n">
-        <v>418.7747196507213</v>
+        <v>755.9130455243317</v>
       </c>
       <c r="E34" t="n">
-        <v>252.5665138035749</v>
+        <v>589.7048396771852</v>
       </c>
       <c r="F34" t="n">
-        <v>252.5665138035749</v>
+        <v>417.8430654517456</v>
       </c>
       <c r="G34" t="n">
         <v>252.5665138035749</v>
@@ -6855,55 +6855,55 @@
         <v>117.4870531329118</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20232973256563</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="J34" t="n">
-        <v>94.70811840285026</v>
+        <v>172.6298350510712</v>
       </c>
       <c r="K34" t="n">
-        <v>185.5931186296481</v>
+        <v>510.7974443918911</v>
       </c>
       <c r="L34" t="n">
-        <v>652.3693816208596</v>
+        <v>899.0288070848428</v>
       </c>
       <c r="M34" t="n">
-        <v>1194.181832324405</v>
+        <v>1440.841257788388</v>
       </c>
       <c r="N34" t="n">
-        <v>1718.718433727528</v>
+        <v>1567.344936349631</v>
       </c>
       <c r="O34" t="n">
-        <v>2209.966503446627</v>
+        <v>2058.59300606873</v>
       </c>
       <c r="P34" t="n">
-        <v>2304.026933974235</v>
+        <v>2152.653436596338</v>
       </c>
       <c r="Q34" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="R34" t="n">
-        <v>2357.161034341598</v>
+        <v>2357.1610343416</v>
       </c>
       <c r="S34" t="n">
-        <v>2357.161034341598</v>
+        <v>2264.27770772338</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.010745540868</v>
+        <v>2025.12741892265</v>
       </c>
       <c r="U34" t="n">
-        <v>1837.879774389768</v>
+        <v>2025.12741892265</v>
       </c>
       <c r="V34" t="n">
-        <v>1556.168306997797</v>
+        <v>2025.12741892265</v>
       </c>
       <c r="W34" t="n">
-        <v>1281.31590317031</v>
+        <v>1750.275015095163</v>
       </c>
       <c r="X34" t="n">
-        <v>1038.752006616116</v>
+        <v>1507.711118540969</v>
       </c>
       <c r="Y34" t="n">
-        <v>812.4092383058576</v>
+        <v>1281.368350230711</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>724.8400641770643</v>
+        <v>1116.497458021014</v>
       </c>
       <c r="C35" t="n">
-        <v>724.8400641770643</v>
+        <v>689.5967280343139</v>
       </c>
       <c r="D35" t="n">
-        <v>724.8400641770643</v>
+        <v>689.5967280343139</v>
       </c>
       <c r="E35" t="n">
-        <v>724.8400641770643</v>
+        <v>472.3265115431655</v>
       </c>
       <c r="F35" t="n">
-        <v>724.8400641770643</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="G35" t="n">
-        <v>322.686675645487</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20232973256565</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="I35" t="n">
-        <v>95.58626090803224</v>
+        <v>95.58626090803091</v>
       </c>
       <c r="J35" t="n">
-        <v>248.2752632690096</v>
+        <v>248.2752632690081</v>
       </c>
       <c r="K35" t="n">
-        <v>485.3615064824218</v>
+        <v>485.3615064824205</v>
       </c>
       <c r="L35" t="n">
-        <v>785.4844920902774</v>
+        <v>785.4844920902763</v>
       </c>
       <c r="M35" t="n">
-        <v>1124.575424672079</v>
+        <v>1124.575424672078</v>
       </c>
       <c r="N35" t="n">
-        <v>1469.90294691327</v>
+        <v>1469.902946913269</v>
       </c>
       <c r="O35" t="n">
         <v>1793.818953877267</v>
@@ -6958,31 +6958,31 @@
         <v>2064.66735911978</v>
       </c>
       <c r="Q35" t="n">
-        <v>2260.235160376344</v>
+        <v>2260.235160376345</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="S35" t="n">
-        <v>2305.555236018546</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="T35" t="n">
-        <v>2094.197452468388</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="U35" t="n">
-        <v>1836.017396975119</v>
+        <v>2305.555236018547</v>
       </c>
       <c r="V35" t="n">
-        <v>1478.527982101368</v>
+        <v>1948.065821144796</v>
       </c>
       <c r="W35" t="n">
-        <v>1082.136632401715</v>
+        <v>1948.065821144796</v>
       </c>
       <c r="X35" t="n">
-        <v>724.8400641770643</v>
+        <v>1536.345822312544</v>
       </c>
       <c r="Y35" t="n">
-        <v>724.8400641770643</v>
+        <v>1536.345822312544</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>601.8620670180831</v>
+        <v>601.8620670180832</v>
       </c>
       <c r="C36" t="n">
-        <v>484.3561635355878</v>
+        <v>484.3561635355879</v>
       </c>
       <c r="D36" t="n">
         <v>380.5162050508729</v>
@@ -7007,37 +7007,37 @@
         <v>182.1684410067143</v>
       </c>
       <c r="G36" t="n">
-        <v>89.28410784739393</v>
+        <v>89.28410784739395</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20232973256565</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="I36" t="n">
-        <v>70.98924871743529</v>
+        <v>94.1112943464075</v>
       </c>
       <c r="J36" t="n">
-        <v>158.8718723687377</v>
+        <v>181.9939179977099</v>
       </c>
       <c r="K36" t="n">
-        <v>321.7774329449613</v>
+        <v>344.8994785739336</v>
       </c>
       <c r="L36" t="n">
-        <v>548.3514758722426</v>
+        <v>571.473521501215</v>
       </c>
       <c r="M36" t="n">
-        <v>815.8981882391772</v>
+        <v>839.0202338681498</v>
       </c>
       <c r="N36" t="n">
-        <v>1092.867470771184</v>
+        <v>1115.989516400157</v>
       </c>
       <c r="O36" t="n">
-        <v>1342.629537226725</v>
+        <v>1365.751582855698</v>
       </c>
       <c r="P36" t="n">
-        <v>1539.943991705502</v>
+        <v>1563.066037334475</v>
       </c>
       <c r="Q36" t="n">
-        <v>1663.731609704862</v>
+        <v>1686.853655333835</v>
       </c>
       <c r="R36" t="n">
         <v>1816.913801993988</v>
@@ -7055,13 +7055,13 @@
         <v>1230.480688484973</v>
       </c>
       <c r="W36" t="n">
-        <v>1033.95931131819</v>
+        <v>1033.959311318191</v>
       </c>
       <c r="X36" t="n">
-        <v>870.4819650848534</v>
+        <v>870.4819650848535</v>
       </c>
       <c r="Y36" t="n">
-        <v>730.7890764381458</v>
+        <v>730.7890764381459</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>677.0833207717752</v>
+        <v>719.6299916004892</v>
       </c>
       <c r="C37" t="n">
-        <v>677.0833207717752</v>
+        <v>547.6574284794052</v>
       </c>
       <c r="D37" t="n">
-        <v>513.7665478985459</v>
+        <v>384.3406556061759</v>
       </c>
       <c r="E37" t="n">
-        <v>347.5583420513994</v>
+        <v>384.3406556061759</v>
       </c>
       <c r="F37" t="n">
-        <v>347.5583420513994</v>
+        <v>212.4788813807363</v>
       </c>
       <c r="G37" t="n">
-        <v>182.2817904032288</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20232973256565</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20232973256565</v>
+        <v>47.20232973256567</v>
       </c>
       <c r="J37" t="n">
-        <v>94.70811840285029</v>
+        <v>172.6298350510712</v>
       </c>
       <c r="K37" t="n">
-        <v>185.5931186296481</v>
+        <v>510.7974443918911</v>
       </c>
       <c r="L37" t="n">
-        <v>683.1432140273168</v>
+        <v>1008.34753978956</v>
       </c>
       <c r="M37" t="n">
-        <v>811.4201842680407</v>
+        <v>1550.159990493105</v>
       </c>
       <c r="N37" t="n">
-        <v>1335.956785671163</v>
+        <v>2074.696591896228</v>
       </c>
       <c r="O37" t="n">
-        <v>1827.204855390262</v>
+        <v>2209.966503446628</v>
       </c>
       <c r="P37" t="n">
-        <v>2234.021490491178</v>
+        <v>2304.026933974237</v>
       </c>
       <c r="Q37" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="R37" t="n">
-        <v>2357.161034341599</v>
+        <v>2357.1610343416</v>
       </c>
       <c r="S37" t="n">
-        <v>2221.835116807516</v>
+        <v>2204.111999737224</v>
       </c>
       <c r="T37" t="n">
-        <v>1982.684828006786</v>
+        <v>1972.83357099337</v>
       </c>
       <c r="U37" t="n">
-        <v>1702.553856855686</v>
+        <v>1692.702599842271</v>
       </c>
       <c r="V37" t="n">
-        <v>1420.842389463715</v>
+        <v>1410.9911324503</v>
       </c>
       <c r="W37" t="n">
-        <v>1145.989985636228</v>
+        <v>1136.138728622813</v>
       </c>
       <c r="X37" t="n">
-        <v>903.4260890820332</v>
+        <v>1136.138728622813</v>
       </c>
       <c r="Y37" t="n">
-        <v>677.0833207717752</v>
+        <v>909.7959603125548</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2101.936431135012</v>
+        <v>1600.688527294929</v>
       </c>
       <c r="C38" t="n">
-        <v>1675.035701148312</v>
+        <v>1173.787797308229</v>
       </c>
       <c r="D38" t="n">
-        <v>1251.743080333312</v>
+        <v>1173.787797308229</v>
       </c>
       <c r="E38" t="n">
-        <v>825.7661404811698</v>
+        <v>747.8108574560868</v>
       </c>
       <c r="F38" t="n">
-        <v>400.64195867057</v>
+        <v>322.686675645487</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20232973256563</v>
+        <v>322.686675645487</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20232973256563</v>
+        <v>47.20232973256565</v>
       </c>
       <c r="I38" t="n">
-        <v>95.58626090803105</v>
+        <v>95.58626090803114</v>
       </c>
       <c r="J38" t="n">
-        <v>248.2752632690084</v>
+        <v>248.2752632690086</v>
       </c>
       <c r="K38" t="n">
         <v>485.3615064824205</v>
@@ -7189,37 +7189,37 @@
         <v>1469.902946913269</v>
       </c>
       <c r="O38" t="n">
-        <v>1793.818953877266</v>
+        <v>1793.818953877267</v>
       </c>
       <c r="P38" t="n">
-        <v>2064.667359119779</v>
+        <v>2064.66735911978</v>
       </c>
       <c r="Q38" t="n">
-        <v>2260.235160376343</v>
+        <v>2260.235160376344</v>
       </c>
       <c r="R38" t="n">
         <v>2360.116486628282</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.116486628282</v>
+        <v>2305.555236018546</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.116486628282</v>
+        <v>2094.197452468389</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.936431135012</v>
+        <v>1836.017396975119</v>
       </c>
       <c r="V38" t="n">
-        <v>2101.936431135012</v>
+        <v>1836.017396975119</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.936431135012</v>
+        <v>1836.017396975119</v>
       </c>
       <c r="X38" t="n">
-        <v>2101.936431135012</v>
+        <v>1600.688527294929</v>
       </c>
       <c r="Y38" t="n">
-        <v>2101.936431135012</v>
+        <v>1600.688527294929</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>182.1684410067143</v>
       </c>
       <c r="G39" t="n">
-        <v>89.28410784739391</v>
+        <v>89.28410784739393</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20232973256563</v>
+        <v>47.20232973256565</v>
       </c>
       <c r="I39" t="n">
-        <v>70.6539885019956</v>
+        <v>70.65398850199564</v>
       </c>
       <c r="J39" t="n">
-        <v>264.3273726536437</v>
+        <v>158.5366121532981</v>
       </c>
       <c r="K39" t="n">
-        <v>427.2329332298674</v>
+        <v>427.2329332298663</v>
       </c>
       <c r="L39" t="n">
-        <v>653.8069761571487</v>
+        <v>653.8069761571477</v>
       </c>
       <c r="M39" t="n">
-        <v>921.3536885240833</v>
+        <v>921.3536885240825</v>
       </c>
       <c r="N39" t="n">
         <v>1198.32297105609</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>622.2432695937919</v>
+        <v>854.7094522711524</v>
       </c>
       <c r="C40" t="n">
-        <v>450.2707064727078</v>
+        <v>682.7368891500684</v>
       </c>
       <c r="D40" t="n">
-        <v>450.2707064727078</v>
+        <v>519.4201162768391</v>
       </c>
       <c r="E40" t="n">
-        <v>450.2707064727078</v>
+        <v>519.4201162768391</v>
       </c>
       <c r="F40" t="n">
-        <v>278.4089322472682</v>
+        <v>347.5583420513994</v>
       </c>
       <c r="G40" t="n">
-        <v>113.1323805990976</v>
+        <v>182.2817904032288</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20232973256563</v>
+        <v>47.20232973256565</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20232973256563</v>
+        <v>47.20232973256565</v>
       </c>
       <c r="J40" t="n">
-        <v>172.6298350510711</v>
+        <v>128.257222076249</v>
       </c>
       <c r="K40" t="n">
-        <v>263.5148352778689</v>
+        <v>466.424831417069</v>
       </c>
       <c r="L40" t="n">
-        <v>384.6760370843726</v>
+        <v>963.9749268147377</v>
       </c>
       <c r="M40" t="n">
-        <v>926.4884877879182</v>
+        <v>1505.787377518283</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.02508919104</v>
+        <v>1632.291056079526</v>
       </c>
       <c r="O40" t="n">
-        <v>1942.27315891014</v>
+        <v>1745.836801495421</v>
       </c>
       <c r="P40" t="n">
-        <v>2152.653436596336</v>
+        <v>2152.653436596337</v>
       </c>
       <c r="Q40" t="n">
         <v>2360.116486628282</v>
       </c>
       <c r="R40" t="n">
-        <v>2357.161034341598</v>
+        <v>2357.161034341599</v>
       </c>
       <c r="S40" t="n">
-        <v>2357.161034341598</v>
+        <v>2204.111999737223</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.010745540868</v>
+        <v>1964.961710936493</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.879774389768</v>
+        <v>1684.830739785394</v>
       </c>
       <c r="V40" t="n">
-        <v>1556.168306997797</v>
+        <v>1403.119272393423</v>
       </c>
       <c r="W40" t="n">
-        <v>1281.31590317031</v>
+        <v>1128.266868565936</v>
       </c>
       <c r="X40" t="n">
-        <v>1038.752006616116</v>
+        <v>1081.05222058141</v>
       </c>
       <c r="Y40" t="n">
-        <v>812.4092383058576</v>
+        <v>854.7094522711524</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2305.555236018546</v>
+        <v>2150.650190728585</v>
       </c>
       <c r="C41" t="n">
-        <v>1878.654506031846</v>
+        <v>1723.749460741885</v>
       </c>
       <c r="D41" t="n">
-        <v>1455.361885216846</v>
+        <v>1300.456839926885</v>
       </c>
       <c r="E41" t="n">
-        <v>1029.384945364704</v>
+        <v>874.4799000747428</v>
       </c>
       <c r="F41" t="n">
-        <v>604.2607635541037</v>
+        <v>449.3557182641429</v>
       </c>
       <c r="G41" t="n">
-        <v>202.1073750225265</v>
+        <v>47.20232973256566</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256566</v>
       </c>
       <c r="I41" t="n">
-        <v>95.58626090803136</v>
+        <v>95.58626090803125</v>
       </c>
       <c r="J41" t="n">
         <v>248.2752632690087</v>
       </c>
       <c r="K41" t="n">
-        <v>485.3615064824207</v>
+        <v>485.361506482421</v>
       </c>
       <c r="L41" t="n">
-        <v>785.4844920902764</v>
+        <v>785.4844920902767</v>
       </c>
       <c r="M41" t="n">
         <v>1124.575424672078</v>
@@ -7426,37 +7426,37 @@
         <v>1469.902946913269</v>
       </c>
       <c r="O41" t="n">
-        <v>1793.818953877266</v>
+        <v>1793.818953877267</v>
       </c>
       <c r="P41" t="n">
-        <v>2064.667359119779</v>
+        <v>2064.66735911978</v>
       </c>
       <c r="Q41" t="n">
-        <v>2260.235160376344</v>
+        <v>2260.235160376345</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="S41" t="n">
-        <v>2305.555236018546</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="T41" t="n">
-        <v>2305.555236018546</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="U41" t="n">
-        <v>2305.555236018546</v>
+        <v>2150.650190728585</v>
       </c>
       <c r="V41" t="n">
-        <v>2305.555236018546</v>
+        <v>2150.650190728585</v>
       </c>
       <c r="W41" t="n">
-        <v>2305.555236018546</v>
+        <v>2150.650190728585</v>
       </c>
       <c r="X41" t="n">
-        <v>2305.555236018546</v>
+        <v>2150.650190728585</v>
       </c>
       <c r="Y41" t="n">
-        <v>2305.555236018546</v>
+        <v>2150.650190728585</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.8620670180831</v>
+        <v>601.8620670180832</v>
       </c>
       <c r="C42" t="n">
-        <v>484.3561635355878</v>
+        <v>484.3561635355879</v>
       </c>
       <c r="D42" t="n">
         <v>380.5162050508729</v>
@@ -7481,37 +7481,37 @@
         <v>182.1684410067143</v>
       </c>
       <c r="G42" t="n">
-        <v>89.28410784739393</v>
+        <v>89.28410784739394</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256566</v>
       </c>
       <c r="I42" t="n">
-        <v>70.65398850199561</v>
+        <v>70.98924871743473</v>
       </c>
       <c r="J42" t="n">
-        <v>264.3273726536437</v>
+        <v>158.8718723687371</v>
       </c>
       <c r="K42" t="n">
-        <v>427.2329332298674</v>
+        <v>321.7774329449609</v>
       </c>
       <c r="L42" t="n">
-        <v>653.8069761571487</v>
+        <v>548.3514758722423</v>
       </c>
       <c r="M42" t="n">
-        <v>921.3536885240833</v>
+        <v>815.8981882391771</v>
       </c>
       <c r="N42" t="n">
-        <v>1198.32297105609</v>
+        <v>1092.867470771184</v>
       </c>
       <c r="O42" t="n">
-        <v>1448.085037511631</v>
+        <v>1342.629537226725</v>
       </c>
       <c r="P42" t="n">
-        <v>1645.399491990408</v>
+        <v>1539.943991705503</v>
       </c>
       <c r="Q42" t="n">
-        <v>1769.187109989768</v>
+        <v>1663.731609704862</v>
       </c>
       <c r="R42" t="n">
         <v>1816.913801993988</v>
@@ -7529,13 +7529,13 @@
         <v>1230.480688484973</v>
       </c>
       <c r="W42" t="n">
-        <v>1033.95931131819</v>
+        <v>1033.959311318191</v>
       </c>
       <c r="X42" t="n">
-        <v>870.4819650848534</v>
+        <v>870.4819650848535</v>
       </c>
       <c r="Y42" t="n">
-        <v>730.7890764381458</v>
+        <v>730.7890764381459</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.202381518645</v>
+        <v>752.2806584272005</v>
       </c>
       <c r="C43" t="n">
-        <v>919.229818397561</v>
+        <v>752.2806584272005</v>
       </c>
       <c r="D43" t="n">
-        <v>755.9130455243317</v>
+        <v>752.2806584272005</v>
       </c>
       <c r="E43" t="n">
         <v>589.7048396771852</v>
@@ -7566,55 +7566,55 @@
         <v>117.4870531329118</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256566</v>
       </c>
       <c r="J43" t="n">
-        <v>94.70811840285027</v>
+        <v>126.9437913642112</v>
       </c>
       <c r="K43" t="n">
-        <v>185.5931186296481</v>
+        <v>465.1114007050311</v>
       </c>
       <c r="L43" t="n">
-        <v>652.3693816208601</v>
+        <v>586.2726025115348</v>
       </c>
       <c r="M43" t="n">
-        <v>1194.181832324406</v>
+        <v>1128.085053215081</v>
       </c>
       <c r="N43" t="n">
-        <v>1718.718433727528</v>
+        <v>1254.588731776323</v>
       </c>
       <c r="O43" t="n">
-        <v>2209.966503446627</v>
+        <v>1745.836801495422</v>
       </c>
       <c r="P43" t="n">
-        <v>2304.026933974235</v>
+        <v>2152.653436596338</v>
       </c>
       <c r="Q43" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="R43" t="n">
-        <v>2357.161034341599</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="S43" t="n">
-        <v>2357.161034341599</v>
+        <v>2207.067452023907</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.010745540868</v>
+        <v>1967.917163223177</v>
       </c>
       <c r="U43" t="n">
-        <v>2118.010745540868</v>
+        <v>1967.917163223177</v>
       </c>
       <c r="V43" t="n">
-        <v>2025.12741892265</v>
+        <v>1686.205695831206</v>
       </c>
       <c r="W43" t="n">
-        <v>1750.275015095163</v>
+        <v>1411.353292003719</v>
       </c>
       <c r="X43" t="n">
-        <v>1507.711118540969</v>
+        <v>1168.789395449524</v>
       </c>
       <c r="Y43" t="n">
-        <v>1281.368350230711</v>
+        <v>942.4466271392662</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>872.6483390791427</v>
+        <v>1302.233388102985</v>
       </c>
       <c r="C44" t="n">
-        <v>872.6483390791427</v>
+        <v>875.3326581162853</v>
       </c>
       <c r="D44" t="n">
-        <v>449.3557182641429</v>
+        <v>875.3326581162853</v>
       </c>
       <c r="E44" t="n">
         <v>449.3557182641429</v>
@@ -7639,22 +7639,22 @@
         <v>449.3557182641429</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256566</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256566</v>
       </c>
       <c r="I44" t="n">
-        <v>95.58626090803105</v>
+        <v>95.58626090803114</v>
       </c>
       <c r="J44" t="n">
-        <v>248.2752632690084</v>
+        <v>248.2752632690086</v>
       </c>
       <c r="K44" t="n">
-        <v>485.3615064824207</v>
+        <v>485.3615064824209</v>
       </c>
       <c r="L44" t="n">
-        <v>785.4844920902765</v>
+        <v>785.4844920902767</v>
       </c>
       <c r="M44" t="n">
         <v>1124.575424672078</v>
@@ -7666,34 +7666,34 @@
         <v>1793.818953877266</v>
       </c>
       <c r="P44" t="n">
-        <v>2064.667359119779</v>
+        <v>2064.66735911978</v>
       </c>
       <c r="Q44" t="n">
-        <v>2260.235160376343</v>
+        <v>2260.235160376345</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="T44" t="n">
-        <v>2148.758703078124</v>
+        <v>2148.758703078126</v>
       </c>
       <c r="U44" t="n">
-        <v>1890.578647584854</v>
+        <v>1890.578647584856</v>
       </c>
       <c r="V44" t="n">
-        <v>1533.089232711104</v>
+        <v>1533.089232711105</v>
       </c>
       <c r="W44" t="n">
-        <v>1136.697883011451</v>
+        <v>1302.233388102985</v>
       </c>
       <c r="X44" t="n">
-        <v>1136.697883011451</v>
+        <v>1302.233388102985</v>
       </c>
       <c r="Y44" t="n">
-        <v>872.6483390791427</v>
+        <v>1302.233388102985</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.8620670180831</v>
+        <v>601.8620670180832</v>
       </c>
       <c r="C45" t="n">
-        <v>484.3561635355878</v>
+        <v>484.3561635355879</v>
       </c>
       <c r="D45" t="n">
         <v>380.5162050508729</v>
@@ -7718,31 +7718,31 @@
         <v>182.1684410067143</v>
       </c>
       <c r="G45" t="n">
-        <v>89.28410784739393</v>
+        <v>89.28410784739394</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256566</v>
       </c>
       <c r="I45" t="n">
-        <v>70.65398850199561</v>
+        <v>70.65398850199564</v>
       </c>
       <c r="J45" t="n">
-        <v>264.3273726536437</v>
+        <v>158.5366121532981</v>
       </c>
       <c r="K45" t="n">
-        <v>427.2329332298674</v>
+        <v>321.4421727295218</v>
       </c>
       <c r="L45" t="n">
-        <v>653.8069761571487</v>
+        <v>548.0162156568032</v>
       </c>
       <c r="M45" t="n">
-        <v>921.3536885240833</v>
+        <v>815.562928023738</v>
       </c>
       <c r="N45" t="n">
-        <v>1198.32297105609</v>
+        <v>1092.532210555745</v>
       </c>
       <c r="O45" t="n">
-        <v>1448.085037511631</v>
+        <v>1342.294277011286</v>
       </c>
       <c r="P45" t="n">
         <v>1645.399491990408</v>
@@ -7766,13 +7766,13 @@
         <v>1230.480688484973</v>
       </c>
       <c r="W45" t="n">
-        <v>1033.95931131819</v>
+        <v>1033.959311318191</v>
       </c>
       <c r="X45" t="n">
-        <v>870.4819650848534</v>
+        <v>870.4819650848535</v>
       </c>
       <c r="Y45" t="n">
-        <v>730.7890764381458</v>
+        <v>730.7890764381459</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>662.3156559881655</v>
+        <v>469.1942349894175</v>
       </c>
       <c r="C46" t="n">
-        <v>490.3430928670815</v>
+        <v>469.1942349894175</v>
       </c>
       <c r="D46" t="n">
-        <v>490.3430928670815</v>
+        <v>305.8774621161882</v>
       </c>
       <c r="E46" t="n">
-        <v>490.3430928670815</v>
+        <v>139.6692562690417</v>
       </c>
       <c r="F46" t="n">
-        <v>318.4813186416419</v>
+        <v>139.6692562690417</v>
       </c>
       <c r="G46" t="n">
-        <v>153.2047669934713</v>
+        <v>139.6692562690417</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256566</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20232973256564</v>
+        <v>47.20232973256566</v>
       </c>
       <c r="J46" t="n">
-        <v>94.70811840285027</v>
+        <v>94.70811840285032</v>
       </c>
       <c r="K46" t="n">
-        <v>240.0960044917641</v>
+        <v>185.5931186296482</v>
       </c>
       <c r="L46" t="n">
-        <v>737.6460998894328</v>
+        <v>652.3693816208608</v>
       </c>
       <c r="M46" t="n">
-        <v>1279.458550592978</v>
+        <v>1194.181832324407</v>
       </c>
       <c r="N46" t="n">
-        <v>1405.96222915422</v>
+        <v>1718.718433727529</v>
       </c>
       <c r="O46" t="n">
-        <v>1897.21029887332</v>
+        <v>2209.966503446628</v>
       </c>
       <c r="P46" t="n">
-        <v>2304.026933974235</v>
+        <v>2304.026933974236</v>
       </c>
       <c r="Q46" t="n">
-        <v>2360.116486628282</v>
+        <v>2360.116486628283</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.116486628282</v>
+        <v>2357.1610343416</v>
       </c>
       <c r="S46" t="n">
-        <v>2207.067452023906</v>
+        <v>2204.111999737224</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.917163223176</v>
+        <v>1964.961710936494</v>
       </c>
       <c r="U46" t="n">
-        <v>1687.786192072077</v>
+        <v>1684.830739785394</v>
       </c>
       <c r="V46" t="n">
-        <v>1406.074724680105</v>
+        <v>1403.119272393423</v>
       </c>
       <c r="W46" t="n">
-        <v>1131.222320852618</v>
+        <v>1128.266868565936</v>
       </c>
       <c r="X46" t="n">
-        <v>888.6584242984235</v>
+        <v>885.7029720117411</v>
       </c>
       <c r="Y46" t="n">
-        <v>662.3156559881655</v>
+        <v>659.3602037014831</v>
       </c>
     </row>
   </sheetData>
@@ -8455,13 +8455,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K8" t="n">
-        <v>14.09296117214526</v>
+        <v>14.09296117214527</v>
       </c>
       <c r="L8" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M8" t="n">
-        <v>7.515868967310212</v>
+        <v>7.515868967310215</v>
       </c>
       <c r="N8" t="n">
         <v>6.880166552921242</v>
@@ -8473,7 +8473,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.72668497534603</v>
+        <v>17.72668497534604</v>
       </c>
       <c r="R8" t="n">
         <v>24.33067662398352</v>
@@ -8534,7 +8534,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K9" t="n">
-        <v>7.679584047590229</v>
+        <v>7.679584047590231</v>
       </c>
       <c r="L9" t="n">
         <v>2.722701059689193</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.483625009529543</v>
+        <v>1.483625009529547</v>
       </c>
       <c r="P9" t="n">
         <v>4.364096701700124</v>
@@ -8625,7 +8625,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O10" t="n">
-        <v>11.69730019489984</v>
+        <v>11.69730019489985</v>
       </c>
       <c r="P10" t="n">
         <v>13.13791998612571</v>
@@ -8768,10 +8768,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>326.4130602513781</v>
+        <v>176.8960973939085</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>145.5360598390876</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8856,19 +8856,19 @@
         <v>360.0219516362447</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>158.6891780079785</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O13" t="n">
-        <v>45.3448822271198</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>70.37539003541804</v>
       </c>
       <c r="L15" t="n">
-        <v>275.0289943327833</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>90.39941839919098</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9090,19 +9090,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479649</v>
+        <v>5.786655404040175</v>
       </c>
       <c r="N16" t="n">
-        <v>355.4735849779359</v>
+        <v>355.4735849779358</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>11.40031649232016</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>7.360890261672864</v>
+        <v>7.360890261673148</v>
       </c>
       <c r="Q18" t="n">
-        <v>358.0675224703016</v>
+        <v>358.0675224703015</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>360.0219516362447</v>
       </c>
       <c r="M19" t="n">
-        <v>120.89109554784</v>
+        <v>198.2474048310579</v>
       </c>
       <c r="N19" t="n">
-        <v>355.4735849779358</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>70.37539003541852</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>126.5047566361199</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M22" t="n">
-        <v>354.4082905479648</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779358</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O22" t="n">
-        <v>366.287300401798</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>106.8593540407533</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.16510571306364</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>70.08309074042236</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>386.627927329662</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.8593540407533</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.16510571306341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10047,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>12.02532769967996</v>
+        <v>350.4328200977239</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0.3386466822617002</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>83.16510571306452</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>349.1061224087973</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10287,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>117.4947951096858</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>106.8593540407533</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.16510571306364</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>349.1061224087958</v>
+        <v>269.7678392792404</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3386466822622864</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>83.16510571306364</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>21.94360215606554</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.71256917480636</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>106.8593540407533</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>106.859354040752</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>33.88798350848356</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>117.4947951096853</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.3386466822617074</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8593540407532</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>32.5612858195564</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>349.1061224087963</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8593540407532</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>106.8593540407524</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>55.05342006274344</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>380.1908016072373</v>
+        <v>349.1061224087969</v>
       </c>
       <c r="M46" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.125302283796259</v>
+        <v>0.1253022837962369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>357.8627015481615</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23275,7 +23275,7 @@
         <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>202.0511491659593</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>155.4003802800667</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
         <v>135.4602252892499</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>5.149676059198568</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>5.049245332475891</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
         <v>277.176001558223</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>13.00108458996132</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1917776429987</v>
       </c>
       <c r="G16" t="n">
-        <v>114.533314816981</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
         <v>135.4602252892499</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3402845023203</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>241.5444308974638</v>
       </c>
       <c r="E17" t="n">
-        <v>305.4952517167252</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>211.1448086517629</v>
@@ -23794,10 +23794,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>115.0694407118633</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23898,7 +23898,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>12.18510681011156</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>374.7942683492254</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.5660300744983</v>
@@ -24025,13 +24025,13 @@
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>213.8628244399944</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>7.512554486307153</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>130.7334610444097</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.1318546462614</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>8.720019339887642</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>54.01563810363909</v>
+        <v>54.01563810363907</v>
       </c>
       <c r="T23" t="n">
-        <v>209.244205714656</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.5982549383371</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>62.44262240648214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.1737131214223</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.6237861316889</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.925897763816387</v>
       </c>
       <c r="S25" t="n">
         <v>151.5185442583318</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3296614395885</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>186.9398593660151</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>302.8447466350131</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>272.7295024537921</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.244205714656</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>284.8542074117378</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>74.86234479795974</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.7286660639565</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.58187616634264</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.925897763816387</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>59.56405090629593</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3296614395885</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>263.69468519372</v>
+        <v>398.1318546462614</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>272.7295024537921</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>209.244205714656</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.5982549383371</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>271.7648300092212</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.6237861316889</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>69.38025336307412</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.58187616634264</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>151.5185442583318</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>117.4749986603868</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>398.1318546462614</v>
@@ -24979,13 +24979,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>237.000424720112</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>265.4459285099513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>130.5025781907303</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6237861316889</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>151.5185442583318</v>
+        <v>59.56405090629444</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3296614395885</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>206.6196561273841</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.1318546462614</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>272.7295024537921</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.244205714656</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5982549383371</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>53.87919630152612</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.7286660639565</v>
       </c>
       <c r="I37" t="n">
-        <v>69.58187616634265</v>
+        <v>69.58187616634264</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>17.54588589958954</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>7.793141456307382</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>48.22662199763715</v>
+        <v>398.1318546462614</v>
       </c>
       <c r="H38" t="n">
-        <v>272.7295024537921</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>54.01563810363909</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.244205714656</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>174.627217860542</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.45791570608986</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>69.58187616634265</v>
+        <v>69.58187616634264</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>151.5185442583318</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>193.3957560839731</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>119.3735076167309</v>
+        <v>272.7295024537921</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>54.01563810363907</v>
       </c>
       <c r="T41" t="n">
         <v>209.244205714656</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5982549383371</v>
+        <v>48.22662199763582</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>3.596063226159856</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2.925897763816387</v>
       </c>
       <c r="S43" t="n">
-        <v>151.5185442583318</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>277.3296614395885</v>
       </c>
       <c r="V43" t="n">
-        <v>186.9398593660156</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,13 +25867,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>54.01563810363909</v>
+        <v>54.01563810363907</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>163.8801500406176</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>139.8748488516736</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.6237861316889</v>
       </c>
       <c r="H46" t="n">
-        <v>28.78625317565995</v>
+        <v>42.18640879284521</v>
       </c>
       <c r="I46" t="n">
-        <v>69.58187616634265</v>
+        <v>69.58187616634264</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.925897763816401</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>372374.1450555456</v>
+        <v>372374.1450555454</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>434572.5378009161</v>
+        <v>434572.5378009162</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>434572.5378009161</v>
+        <v>434572.5378009162</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>434572.5378009159</v>
+        <v>434572.5378009162</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>434572.5378009161</v>
+        <v>434572.5378009162</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>434572.5378009159</v>
+        <v>434572.5378009161</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434572.5378009161</v>
+        <v>434572.5378009162</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434572.5378009159</v>
+        <v>434572.5378009161</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>344261.6519847692</v>
+      </c>
+      <c r="C2" t="n">
         <v>344261.6519847693</v>
       </c>
-      <c r="C2" t="n">
-        <v>344261.6519847692</v>
-      </c>
       <c r="D2" t="n">
-        <v>344262.4636950262</v>
+        <v>344262.4636950263</v>
       </c>
       <c r="E2" t="n">
-        <v>184523.1391850203</v>
+        <v>184523.1391850204</v>
       </c>
       <c r="F2" t="n">
-        <v>184523.1391850203</v>
+        <v>184523.1391850204</v>
       </c>
       <c r="G2" t="n">
-        <v>184523.1391850203</v>
+        <v>184523.1391850204</v>
       </c>
       <c r="H2" t="n">
         <v>184523.1391850204</v>
       </c>
       <c r="I2" t="n">
+        <v>218566.9392526049</v>
+      </c>
+      <c r="J2" t="n">
         <v>218566.9392526048</v>
       </c>
-      <c r="J2" t="n">
-        <v>218566.9392526047</v>
-      </c>
       <c r="K2" t="n">
+        <v>218566.9392526048</v>
+      </c>
+      <c r="L2" t="n">
         <v>218566.9392526049</v>
       </c>
-      <c r="L2" t="n">
-        <v>218566.9392526048</v>
-      </c>
       <c r="M2" t="n">
-        <v>218566.9392526048</v>
+        <v>218566.9392526049</v>
       </c>
       <c r="N2" t="n">
         <v>218566.9392526048</v>
       </c>
       <c r="O2" t="n">
-        <v>218566.9392526048</v>
+        <v>218566.9392526049</v>
       </c>
       <c r="P2" t="n">
         <v>218566.9392526048</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>3620.625146095259</v>
       </c>
       <c r="E3" t="n">
-        <v>447005.901670114</v>
+        <v>447005.9016701139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>117616.4530217001</v>
+        <v>117616.4530217003</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>113002.071142496</v>
+        <v>113002.0711424958</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310818.0872661465</v>
+        <v>310818.0872661464</v>
       </c>
       <c r="C4" t="n">
-        <v>310818.0872661465</v>
+        <v>310818.0872661464</v>
       </c>
       <c r="D4" t="n">
-        <v>309861.0838734401</v>
+        <v>309861.08387344</v>
       </c>
       <c r="E4" t="n">
         <v>19098.00660565759</v>
@@ -26441,25 +26441,25 @@
         <v>16129.31888960247</v>
       </c>
       <c r="J4" t="n">
+        <v>16129.31888960245</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16129.31888960246</v>
+      </c>
+      <c r="L4" t="n">
         <v>16129.31888960247</v>
       </c>
-      <c r="K4" t="n">
-        <v>16129.31888960247</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>16129.31888960246</v>
       </c>
-      <c r="M4" t="n">
-        <v>16129.31888960247</v>
-      </c>
       <c r="N4" t="n">
-        <v>16129.31888960246</v>
+        <v>16129.31888960245</v>
       </c>
       <c r="O4" t="n">
         <v>16129.31888960246</v>
       </c>
       <c r="P4" t="n">
-        <v>16129.31888960246</v>
+        <v>16129.31888960245</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
+        <v>47607.60999368483</v>
+      </c>
+      <c r="J5" t="n">
         <v>47607.60999368482</v>
       </c>
-      <c r="J5" t="n">
-        <v>47607.60999368481</v>
-      </c>
       <c r="K5" t="n">
-        <v>47607.60999368481</v>
+        <v>47607.60999368483</v>
       </c>
       <c r="L5" t="n">
-        <v>47607.6099936848</v>
+        <v>47607.60999368483</v>
       </c>
       <c r="M5" t="n">
+        <v>47607.60999368483</v>
+      </c>
+      <c r="N5" t="n">
         <v>47607.60999368482</v>
       </c>
-      <c r="N5" t="n">
-        <v>47607.6099936848</v>
-      </c>
       <c r="O5" t="n">
-        <v>47607.60999368481</v>
+        <v>47607.60999368483</v>
       </c>
       <c r="P5" t="n">
-        <v>47607.60999368481</v>
+        <v>47607.60999368483</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37779.27180922782</v>
+        <v>-37800.95492931926</v>
       </c>
       <c r="C6" t="n">
-        <v>-1015.743566438614</v>
+        <v>-1037.426686529816</v>
       </c>
       <c r="D6" t="n">
-        <v>-3770.716545002222</v>
+        <v>-3792.396282967404</v>
       </c>
       <c r="E6" t="n">
-        <v>-318530.0699037928</v>
+        <v>-319217.3301605496</v>
       </c>
       <c r="F6" t="n">
-        <v>128475.8317663212</v>
+        <v>127788.5715095643</v>
       </c>
       <c r="G6" t="n">
-        <v>128475.8317663212</v>
+        <v>127788.5715095643</v>
       </c>
       <c r="H6" t="n">
-        <v>128475.8317663213</v>
+        <v>127788.5715095642</v>
       </c>
       <c r="I6" t="n">
-        <v>37213.55734761745</v>
+        <v>36668.14625780862</v>
       </c>
       <c r="J6" t="n">
-        <v>154830.0103693175</v>
+        <v>154284.5992795088</v>
       </c>
       <c r="K6" t="n">
-        <v>154830.0103693176</v>
+        <v>154284.5992795088</v>
       </c>
       <c r="L6" t="n">
-        <v>154830.0103693175</v>
+        <v>154284.5992795089</v>
       </c>
       <c r="M6" t="n">
-        <v>41827.93922682152</v>
+        <v>41282.52813701307</v>
       </c>
       <c r="N6" t="n">
-        <v>154830.0103693175</v>
+        <v>154284.5992795088</v>
       </c>
       <c r="O6" t="n">
-        <v>154830.0103693175</v>
+        <v>154284.5992795089</v>
       </c>
       <c r="P6" t="n">
-        <v>154830.0103693176</v>
+        <v>154284.5992795088</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="H3" t="n">
         <v>430.248375846946</v>
       </c>
       <c r="I3" t="n">
-        <v>538.2495136208681</v>
+        <v>538.2495136208684</v>
       </c>
       <c r="J3" t="n">
-        <v>538.2495136208681</v>
+        <v>538.2495136208684</v>
       </c>
       <c r="K3" t="n">
-        <v>538.2495136208681</v>
+        <v>538.2495136208684</v>
       </c>
       <c r="L3" t="n">
-        <v>538.2495136208681</v>
+        <v>538.2495136208684</v>
       </c>
       <c r="M3" t="n">
-        <v>538.2495136208681</v>
+        <v>538.2495136208684</v>
       </c>
       <c r="N3" t="n">
-        <v>538.2495136208681</v>
+        <v>538.2495136208684</v>
       </c>
       <c r="O3" t="n">
-        <v>538.2495136208681</v>
+        <v>538.2495136208684</v>
       </c>
       <c r="P3" t="n">
-        <v>538.2495136208681</v>
+        <v>538.2495136208684</v>
       </c>
     </row>
     <row r="4">
@@ -26801,37 +26801,37 @@
         <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="G4" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
+        <v>590.0291216570708</v>
+      </c>
+      <c r="J4" t="n">
         <v>590.0291216570706</v>
       </c>
-      <c r="J4" t="n">
-        <v>590.0291216570705</v>
-      </c>
       <c r="K4" t="n">
-        <v>590.0291216570705</v>
+        <v>590.0291216570708</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0291216570704</v>
+        <v>590.0291216570708</v>
       </c>
       <c r="M4" t="n">
+        <v>590.0291216570708</v>
+      </c>
+      <c r="N4" t="n">
         <v>590.0291216570706</v>
       </c>
-      <c r="N4" t="n">
-        <v>590.0291216570704</v>
-      </c>
       <c r="O4" t="n">
-        <v>590.0291216570705</v>
+        <v>590.0291216570707</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0291216570705</v>
+        <v>590.0291216570707</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>108.0011377739221</v>
+        <v>108.0011377739223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>136.5770456771672</v>
+        <v>136.5770456771673</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799038</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31521,13 +31521,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I8" t="n">
-        <v>6.568170250898712</v>
+        <v>6.568170250898711</v>
       </c>
       <c r="J8" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K8" t="n">
-        <v>21.67163962266408</v>
+        <v>21.67163962266407</v>
       </c>
       <c r="L8" t="n">
         <v>26.88558528937678</v>
@@ -31551,7 +31551,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S8" t="n">
-        <v>3.882295041627765</v>
+        <v>3.882295041627764</v>
       </c>
       <c r="T8" t="n">
         <v>0.7457924978486244</v>
@@ -31597,7 +31597,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8803723504958668</v>
+        <v>0.8803723504958667</v>
       </c>
       <c r="I9" t="n">
         <v>3.138475454765011</v>
@@ -31618,7 +31618,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>21.68826471269268</v>
+        <v>21.68826471269267</v>
       </c>
       <c r="P9" t="n">
         <v>17.40674450312854</v>
@@ -31633,10 +31633,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.3674215213922348</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005997086856238876</v>
+        <v>0.005997086856238875</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31700,13 +31700,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P10" t="n">
-        <v>9.242880671860771</v>
+        <v>9.242880671860769</v>
       </c>
       <c r="Q10" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R10" t="n">
-        <v>3.436206238952449</v>
+        <v>3.436206238952448</v>
       </c>
       <c r="S10" t="n">
         <v>1.331825184001586</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H13" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
@@ -32013,7 +32013,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32086,7 +32086,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N15" t="n">
         <v>240.6914947108307</v>
@@ -32101,7 +32101,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
@@ -32110,7 +32110,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
@@ -32159,7 +32159,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L16" t="n">
         <v>115.3488842393599</v>
@@ -32174,10 +32174,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R16" t="n">
         <v>34.88538470391794</v>
@@ -32186,10 +32186,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
@@ -32250,7 +32250,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,7 +32323,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
@@ -32338,7 +32338,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
@@ -32347,7 +32347,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
@@ -32396,7 +32396,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.163817140184393</v>
+        <v>2.163817140184394</v>
       </c>
       <c r="H23" t="n">
-        <v>22.16019228691342</v>
+        <v>22.16019228691343</v>
       </c>
       <c r="I23" t="n">
-        <v>83.42056029695888</v>
+        <v>83.42056029695893</v>
       </c>
       <c r="J23" t="n">
-        <v>183.6512750017253</v>
+        <v>183.6512750017254</v>
       </c>
       <c r="K23" t="n">
-        <v>275.2456545457307</v>
+        <v>275.2456545457308</v>
       </c>
       <c r="L23" t="n">
-        <v>341.4665733496489</v>
+        <v>341.466573349649</v>
       </c>
       <c r="M23" t="n">
-        <v>379.9473564164031</v>
+        <v>379.9473564164032</v>
       </c>
       <c r="N23" t="n">
-        <v>386.095301865952</v>
+        <v>386.0953018659521</v>
       </c>
       <c r="O23" t="n">
-        <v>364.5788451782434</v>
+        <v>364.5788451782436</v>
       </c>
       <c r="P23" t="n">
-        <v>311.1596095299412</v>
+        <v>311.1596095299413</v>
       </c>
       <c r="Q23" t="n">
-        <v>233.6679081970875</v>
+        <v>233.6679081970876</v>
       </c>
       <c r="R23" t="n">
         <v>135.922878432108</v>
       </c>
       <c r="S23" t="n">
-        <v>49.3079830819519</v>
+        <v>49.30798308195192</v>
       </c>
       <c r="T23" t="n">
-        <v>9.472109531157184</v>
+        <v>9.472109531157189</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1731053712147514</v>
+        <v>0.1731053712147515</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.157744236844886</v>
+        <v>1.157744236844887</v>
       </c>
       <c r="H24" t="n">
         <v>11.18137197163351</v>
       </c>
       <c r="I24" t="n">
-        <v>39.86093096154543</v>
+        <v>39.86093096154544</v>
       </c>
       <c r="J24" t="n">
         <v>109.3814412538408</v>
@@ -32794,34 +32794,34 @@
         <v>186.9503051224482</v>
       </c>
       <c r="L24" t="n">
-        <v>251.377756337746</v>
+        <v>251.3777563377461</v>
       </c>
       <c r="M24" t="n">
-        <v>293.3459849233731</v>
+        <v>293.3459849233732</v>
       </c>
       <c r="N24" t="n">
-        <v>301.1099802660742</v>
+        <v>301.1099802660743</v>
       </c>
       <c r="O24" t="n">
-        <v>275.4568053338796</v>
+        <v>275.4568053338797</v>
       </c>
       <c r="P24" t="n">
-        <v>221.0783709813713</v>
+        <v>221.0783709813714</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.7850362681297</v>
+        <v>147.7850362681298</v>
       </c>
       <c r="R24" t="n">
-        <v>71.8816991963869</v>
+        <v>71.88169919638693</v>
       </c>
       <c r="S24" t="n">
-        <v>21.50459141683373</v>
+        <v>21.50459141683374</v>
       </c>
       <c r="T24" t="n">
-        <v>4.666521726580921</v>
+        <v>4.666521726580923</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07616738400295307</v>
+        <v>0.0761673840029531</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9706138770212375</v>
+        <v>0.9706138770212379</v>
       </c>
       <c r="H25" t="n">
-        <v>8.629639742970646</v>
+        <v>8.62963974297065</v>
       </c>
       <c r="I25" t="n">
-        <v>29.18900641078413</v>
+        <v>29.18900641078415</v>
       </c>
       <c r="J25" t="n">
-        <v>68.62240110540149</v>
+        <v>68.62240110540152</v>
       </c>
       <c r="K25" t="n">
-        <v>112.767684984831</v>
+        <v>112.7676849848311</v>
       </c>
       <c r="L25" t="n">
-        <v>144.3038122255029</v>
+        <v>144.303812225503</v>
       </c>
       <c r="M25" t="n">
-        <v>152.1481371043381</v>
+        <v>152.1481371043382</v>
       </c>
       <c r="N25" t="n">
         <v>148.5303944718046</v>
       </c>
       <c r="O25" t="n">
-        <v>137.1918596356928</v>
+        <v>137.1918596356929</v>
       </c>
       <c r="P25" t="n">
-        <v>117.3913365444594</v>
+        <v>117.3913365444595</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.27567655675108</v>
+        <v>81.27567655675112</v>
       </c>
       <c r="R25" t="n">
-        <v>43.64232941588218</v>
+        <v>43.64232941588219</v>
       </c>
       <c r="S25" t="n">
-        <v>16.91515274772465</v>
+        <v>16.91515274772466</v>
       </c>
       <c r="T25" t="n">
-        <v>4.147168383636195</v>
+        <v>4.147168383636197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05294257511024938</v>
+        <v>0.0529425751102494</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.163817140184393</v>
+        <v>2.163817140184394</v>
       </c>
       <c r="H26" t="n">
-        <v>22.16019228691342</v>
+        <v>22.16019228691343</v>
       </c>
       <c r="I26" t="n">
-        <v>83.42056029695888</v>
+        <v>83.42056029695893</v>
       </c>
       <c r="J26" t="n">
-        <v>183.6512750017253</v>
+        <v>183.6512750017254</v>
       </c>
       <c r="K26" t="n">
-        <v>275.2456545457307</v>
+        <v>275.2456545457308</v>
       </c>
       <c r="L26" t="n">
-        <v>341.4665733496489</v>
+        <v>341.466573349649</v>
       </c>
       <c r="M26" t="n">
-        <v>379.9473564164031</v>
+        <v>379.9473564164032</v>
       </c>
       <c r="N26" t="n">
-        <v>386.095301865952</v>
+        <v>386.0953018659521</v>
       </c>
       <c r="O26" t="n">
-        <v>364.5788451782434</v>
+        <v>364.5788451782436</v>
       </c>
       <c r="P26" t="n">
-        <v>311.1596095299412</v>
+        <v>311.1596095299413</v>
       </c>
       <c r="Q26" t="n">
-        <v>233.6679081970875</v>
+        <v>233.6679081970876</v>
       </c>
       <c r="R26" t="n">
         <v>135.922878432108</v>
       </c>
       <c r="S26" t="n">
-        <v>49.3079830819519</v>
+        <v>49.30798308195192</v>
       </c>
       <c r="T26" t="n">
-        <v>9.472109531157184</v>
+        <v>9.472109531157189</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1731053712147514</v>
+        <v>0.1731053712147515</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.157744236844886</v>
+        <v>1.157744236844887</v>
       </c>
       <c r="H27" t="n">
         <v>11.18137197163351</v>
       </c>
       <c r="I27" t="n">
-        <v>39.86093096154543</v>
+        <v>39.86093096154544</v>
       </c>
       <c r="J27" t="n">
         <v>109.3814412538408</v>
@@ -33031,34 +33031,34 @@
         <v>186.9503051224482</v>
       </c>
       <c r="L27" t="n">
-        <v>251.377756337746</v>
+        <v>251.3777563377461</v>
       </c>
       <c r="M27" t="n">
-        <v>293.3459849233731</v>
+        <v>293.3459849233732</v>
       </c>
       <c r="N27" t="n">
-        <v>301.1099802660742</v>
+        <v>301.1099802660743</v>
       </c>
       <c r="O27" t="n">
-        <v>275.4568053338796</v>
+        <v>275.4568053338797</v>
       </c>
       <c r="P27" t="n">
-        <v>221.0783709813713</v>
+        <v>221.0783709813714</v>
       </c>
       <c r="Q27" t="n">
-        <v>147.7850362681297</v>
+        <v>147.7850362681298</v>
       </c>
       <c r="R27" t="n">
-        <v>71.8816991963869</v>
+        <v>71.88169919638693</v>
       </c>
       <c r="S27" t="n">
-        <v>21.50459141683373</v>
+        <v>21.50459141683374</v>
       </c>
       <c r="T27" t="n">
-        <v>4.666521726580921</v>
+        <v>4.666521726580923</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07616738400295307</v>
+        <v>0.0761673840029531</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9706138770212375</v>
+        <v>0.9706138770212379</v>
       </c>
       <c r="H28" t="n">
-        <v>8.629639742970646</v>
+        <v>8.62963974297065</v>
       </c>
       <c r="I28" t="n">
-        <v>29.18900641078413</v>
+        <v>29.18900641078415</v>
       </c>
       <c r="J28" t="n">
-        <v>68.62240110540149</v>
+        <v>68.62240110540152</v>
       </c>
       <c r="K28" t="n">
-        <v>112.767684984831</v>
+        <v>112.7676849848311</v>
       </c>
       <c r="L28" t="n">
-        <v>144.3038122255029</v>
+        <v>144.303812225503</v>
       </c>
       <c r="M28" t="n">
-        <v>152.1481371043381</v>
+        <v>152.1481371043382</v>
       </c>
       <c r="N28" t="n">
         <v>148.5303944718046</v>
       </c>
       <c r="O28" t="n">
-        <v>137.1918596356928</v>
+        <v>137.1918596356929</v>
       </c>
       <c r="P28" t="n">
-        <v>117.3913365444594</v>
+        <v>117.3913365444595</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.27567655675108</v>
+        <v>81.27567655675112</v>
       </c>
       <c r="R28" t="n">
-        <v>43.64232941588218</v>
+        <v>43.64232941588219</v>
       </c>
       <c r="S28" t="n">
-        <v>16.91515274772465</v>
+        <v>16.91515274772466</v>
       </c>
       <c r="T28" t="n">
-        <v>4.147168383636195</v>
+        <v>4.147168383636197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05294257511024938</v>
+        <v>0.0529425751102494</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.163817140184393</v>
+        <v>2.163817140184394</v>
       </c>
       <c r="H29" t="n">
-        <v>22.16019228691342</v>
+        <v>22.16019228691343</v>
       </c>
       <c r="I29" t="n">
-        <v>83.42056029695888</v>
+        <v>83.42056029695893</v>
       </c>
       <c r="J29" t="n">
-        <v>183.6512750017253</v>
+        <v>183.6512750017254</v>
       </c>
       <c r="K29" t="n">
-        <v>275.2456545457307</v>
+        <v>275.2456545457308</v>
       </c>
       <c r="L29" t="n">
-        <v>341.4665733496489</v>
+        <v>341.466573349649</v>
       </c>
       <c r="M29" t="n">
-        <v>379.9473564164031</v>
+        <v>379.9473564164032</v>
       </c>
       <c r="N29" t="n">
-        <v>386.095301865952</v>
+        <v>386.0953018659521</v>
       </c>
       <c r="O29" t="n">
-        <v>364.5788451782434</v>
+        <v>364.5788451782436</v>
       </c>
       <c r="P29" t="n">
-        <v>311.1596095299412</v>
+        <v>311.1596095299413</v>
       </c>
       <c r="Q29" t="n">
-        <v>233.6679081970875</v>
+        <v>233.6679081970876</v>
       </c>
       <c r="R29" t="n">
         <v>135.922878432108</v>
       </c>
       <c r="S29" t="n">
-        <v>49.3079830819519</v>
+        <v>49.30798308195192</v>
       </c>
       <c r="T29" t="n">
-        <v>9.472109531157184</v>
+        <v>9.472109531157189</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1731053712147514</v>
+        <v>0.1731053712147515</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.157744236844886</v>
+        <v>1.157744236844887</v>
       </c>
       <c r="H30" t="n">
         <v>11.18137197163351</v>
       </c>
       <c r="I30" t="n">
-        <v>39.86093096154543</v>
+        <v>39.86093096154544</v>
       </c>
       <c r="J30" t="n">
         <v>109.3814412538408</v>
@@ -33268,34 +33268,34 @@
         <v>186.9503051224482</v>
       </c>
       <c r="L30" t="n">
-        <v>251.377756337746</v>
+        <v>251.3777563377461</v>
       </c>
       <c r="M30" t="n">
-        <v>293.3459849233731</v>
+        <v>293.3459849233732</v>
       </c>
       <c r="N30" t="n">
-        <v>301.1099802660742</v>
+        <v>301.1099802660743</v>
       </c>
       <c r="O30" t="n">
-        <v>275.4568053338796</v>
+        <v>275.4568053338797</v>
       </c>
       <c r="P30" t="n">
-        <v>221.0783709813713</v>
+        <v>221.0783709813714</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.7850362681297</v>
+        <v>147.7850362681298</v>
       </c>
       <c r="R30" t="n">
-        <v>71.8816991963869</v>
+        <v>71.88169919638693</v>
       </c>
       <c r="S30" t="n">
-        <v>21.50459141683373</v>
+        <v>21.50459141683374</v>
       </c>
       <c r="T30" t="n">
-        <v>4.666521726580921</v>
+        <v>4.666521726580923</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07616738400295307</v>
+        <v>0.0761673840029531</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9706138770212375</v>
+        <v>0.9706138770212379</v>
       </c>
       <c r="H31" t="n">
-        <v>8.629639742970646</v>
+        <v>8.62963974297065</v>
       </c>
       <c r="I31" t="n">
-        <v>29.18900641078413</v>
+        <v>29.18900641078415</v>
       </c>
       <c r="J31" t="n">
-        <v>68.62240110540149</v>
+        <v>68.62240110540152</v>
       </c>
       <c r="K31" t="n">
-        <v>112.767684984831</v>
+        <v>112.7676849848311</v>
       </c>
       <c r="L31" t="n">
-        <v>144.3038122255029</v>
+        <v>144.303812225503</v>
       </c>
       <c r="M31" t="n">
-        <v>152.1481371043381</v>
+        <v>152.1481371043382</v>
       </c>
       <c r="N31" t="n">
         <v>148.5303944718046</v>
       </c>
       <c r="O31" t="n">
-        <v>137.1918596356928</v>
+        <v>137.1918596356929</v>
       </c>
       <c r="P31" t="n">
-        <v>117.3913365444594</v>
+        <v>117.3913365444595</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.27567655675108</v>
+        <v>81.27567655675112</v>
       </c>
       <c r="R31" t="n">
-        <v>43.64232941588218</v>
+        <v>43.64232941588219</v>
       </c>
       <c r="S31" t="n">
-        <v>16.91515274772465</v>
+        <v>16.91515274772466</v>
       </c>
       <c r="T31" t="n">
-        <v>4.147168383636195</v>
+        <v>4.147168383636197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05294257511024938</v>
+        <v>0.0529425751102494</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.163817140184393</v>
+        <v>2.163817140184394</v>
       </c>
       <c r="H32" t="n">
-        <v>22.16019228691342</v>
+        <v>22.16019228691343</v>
       </c>
       <c r="I32" t="n">
-        <v>83.42056029695888</v>
+        <v>83.42056029695893</v>
       </c>
       <c r="J32" t="n">
-        <v>183.6512750017253</v>
+        <v>183.6512750017254</v>
       </c>
       <c r="K32" t="n">
-        <v>275.2456545457307</v>
+        <v>275.2456545457308</v>
       </c>
       <c r="L32" t="n">
-        <v>341.4665733496489</v>
+        <v>341.466573349649</v>
       </c>
       <c r="M32" t="n">
-        <v>379.9473564164031</v>
+        <v>379.9473564164032</v>
       </c>
       <c r="N32" t="n">
-        <v>386.095301865952</v>
+        <v>386.0953018659521</v>
       </c>
       <c r="O32" t="n">
-        <v>364.5788451782434</v>
+        <v>364.5788451782436</v>
       </c>
       <c r="P32" t="n">
-        <v>311.1596095299412</v>
+        <v>311.1596095299413</v>
       </c>
       <c r="Q32" t="n">
-        <v>233.6679081970875</v>
+        <v>233.6679081970876</v>
       </c>
       <c r="R32" t="n">
         <v>135.922878432108</v>
       </c>
       <c r="S32" t="n">
-        <v>49.3079830819519</v>
+        <v>49.30798308195192</v>
       </c>
       <c r="T32" t="n">
-        <v>9.472109531157184</v>
+        <v>9.472109531157189</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1731053712147514</v>
+        <v>0.1731053712147515</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.157744236844886</v>
+        <v>1.157744236844887</v>
       </c>
       <c r="H33" t="n">
         <v>11.18137197163351</v>
       </c>
       <c r="I33" t="n">
-        <v>39.86093096154543</v>
+        <v>39.86093096154544</v>
       </c>
       <c r="J33" t="n">
         <v>109.3814412538408</v>
@@ -33505,34 +33505,34 @@
         <v>186.9503051224482</v>
       </c>
       <c r="L33" t="n">
-        <v>251.377756337746</v>
+        <v>251.3777563377461</v>
       </c>
       <c r="M33" t="n">
-        <v>293.3459849233731</v>
+        <v>293.3459849233732</v>
       </c>
       <c r="N33" t="n">
-        <v>301.1099802660742</v>
+        <v>301.1099802660743</v>
       </c>
       <c r="O33" t="n">
-        <v>275.4568053338796</v>
+        <v>275.4568053338797</v>
       </c>
       <c r="P33" t="n">
-        <v>221.0783709813713</v>
+        <v>221.0783709813714</v>
       </c>
       <c r="Q33" t="n">
-        <v>147.7850362681297</v>
+        <v>147.7850362681298</v>
       </c>
       <c r="R33" t="n">
-        <v>71.8816991963869</v>
+        <v>71.88169919638693</v>
       </c>
       <c r="S33" t="n">
-        <v>21.50459141683373</v>
+        <v>21.50459141683374</v>
       </c>
       <c r="T33" t="n">
-        <v>4.666521726580921</v>
+        <v>4.666521726580923</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07616738400295307</v>
+        <v>0.0761673840029531</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9706138770212375</v>
+        <v>0.9706138770212379</v>
       </c>
       <c r="H34" t="n">
-        <v>8.629639742970646</v>
+        <v>8.62963974297065</v>
       </c>
       <c r="I34" t="n">
-        <v>29.18900641078413</v>
+        <v>29.18900641078415</v>
       </c>
       <c r="J34" t="n">
-        <v>68.62240110540149</v>
+        <v>68.62240110540152</v>
       </c>
       <c r="K34" t="n">
-        <v>112.767684984831</v>
+        <v>112.7676849848311</v>
       </c>
       <c r="L34" t="n">
-        <v>144.3038122255029</v>
+        <v>144.303812225503</v>
       </c>
       <c r="M34" t="n">
-        <v>152.1481371043381</v>
+        <v>152.1481371043382</v>
       </c>
       <c r="N34" t="n">
         <v>148.5303944718046</v>
       </c>
       <c r="O34" t="n">
-        <v>137.1918596356928</v>
+        <v>137.1918596356929</v>
       </c>
       <c r="P34" t="n">
-        <v>117.3913365444594</v>
+        <v>117.3913365444595</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.27567655675108</v>
+        <v>81.27567655675112</v>
       </c>
       <c r="R34" t="n">
-        <v>43.64232941588218</v>
+        <v>43.64232941588219</v>
       </c>
       <c r="S34" t="n">
-        <v>16.91515274772465</v>
+        <v>16.91515274772466</v>
       </c>
       <c r="T34" t="n">
-        <v>4.147168383636195</v>
+        <v>4.147168383636197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05294257511024938</v>
+        <v>0.0529425751102494</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.163817140184393</v>
+        <v>2.163817140184394</v>
       </c>
       <c r="H35" t="n">
-        <v>22.16019228691342</v>
+        <v>22.16019228691343</v>
       </c>
       <c r="I35" t="n">
-        <v>83.42056029695888</v>
+        <v>83.42056029695893</v>
       </c>
       <c r="J35" t="n">
-        <v>183.6512750017253</v>
+        <v>183.6512750017254</v>
       </c>
       <c r="K35" t="n">
-        <v>275.2456545457307</v>
+        <v>275.2456545457308</v>
       </c>
       <c r="L35" t="n">
-        <v>341.4665733496489</v>
+        <v>341.466573349649</v>
       </c>
       <c r="M35" t="n">
-        <v>379.9473564164031</v>
+        <v>379.9473564164032</v>
       </c>
       <c r="N35" t="n">
-        <v>386.095301865952</v>
+        <v>386.0953018659521</v>
       </c>
       <c r="O35" t="n">
-        <v>364.5788451782434</v>
+        <v>364.5788451782436</v>
       </c>
       <c r="P35" t="n">
-        <v>311.1596095299412</v>
+        <v>311.1596095299413</v>
       </c>
       <c r="Q35" t="n">
-        <v>233.6679081970875</v>
+        <v>233.6679081970876</v>
       </c>
       <c r="R35" t="n">
         <v>135.922878432108</v>
       </c>
       <c r="S35" t="n">
-        <v>49.3079830819519</v>
+        <v>49.30798308195192</v>
       </c>
       <c r="T35" t="n">
-        <v>9.472109531157184</v>
+        <v>9.472109531157189</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1731053712147514</v>
+        <v>0.1731053712147515</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.157744236844886</v>
+        <v>1.157744236844887</v>
       </c>
       <c r="H36" t="n">
         <v>11.18137197163351</v>
       </c>
       <c r="I36" t="n">
-        <v>39.86093096154543</v>
+        <v>39.86093096154544</v>
       </c>
       <c r="J36" t="n">
         <v>109.3814412538408</v>
@@ -33742,34 +33742,34 @@
         <v>186.9503051224482</v>
       </c>
       <c r="L36" t="n">
-        <v>251.377756337746</v>
+        <v>251.3777563377461</v>
       </c>
       <c r="M36" t="n">
-        <v>293.3459849233731</v>
+        <v>293.3459849233732</v>
       </c>
       <c r="N36" t="n">
-        <v>301.1099802660742</v>
+        <v>301.1099802660743</v>
       </c>
       <c r="O36" t="n">
-        <v>275.4568053338796</v>
+        <v>275.4568053338797</v>
       </c>
       <c r="P36" t="n">
-        <v>221.0783709813713</v>
+        <v>221.0783709813714</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.7850362681297</v>
+        <v>147.7850362681298</v>
       </c>
       <c r="R36" t="n">
-        <v>71.8816991963869</v>
+        <v>71.88169919638693</v>
       </c>
       <c r="S36" t="n">
-        <v>21.50459141683373</v>
+        <v>21.50459141683374</v>
       </c>
       <c r="T36" t="n">
-        <v>4.666521726580921</v>
+        <v>4.666521726580923</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07616738400295307</v>
+        <v>0.0761673840029531</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9706138770212375</v>
+        <v>0.9706138770212379</v>
       </c>
       <c r="H37" t="n">
-        <v>8.629639742970646</v>
+        <v>8.62963974297065</v>
       </c>
       <c r="I37" t="n">
-        <v>29.18900641078413</v>
+        <v>29.18900641078415</v>
       </c>
       <c r="J37" t="n">
-        <v>68.62240110540149</v>
+        <v>68.62240110540152</v>
       </c>
       <c r="K37" t="n">
-        <v>112.767684984831</v>
+        <v>112.7676849848311</v>
       </c>
       <c r="L37" t="n">
-        <v>144.3038122255029</v>
+        <v>144.303812225503</v>
       </c>
       <c r="M37" t="n">
-        <v>152.1481371043381</v>
+        <v>152.1481371043382</v>
       </c>
       <c r="N37" t="n">
         <v>148.5303944718046</v>
       </c>
       <c r="O37" t="n">
-        <v>137.1918596356928</v>
+        <v>137.1918596356929</v>
       </c>
       <c r="P37" t="n">
-        <v>117.3913365444594</v>
+        <v>117.3913365444595</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.27567655675108</v>
+        <v>81.27567655675112</v>
       </c>
       <c r="R37" t="n">
-        <v>43.64232941588218</v>
+        <v>43.64232941588219</v>
       </c>
       <c r="S37" t="n">
-        <v>16.91515274772465</v>
+        <v>16.91515274772466</v>
       </c>
       <c r="T37" t="n">
-        <v>4.147168383636195</v>
+        <v>4.147168383636197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05294257511024938</v>
+        <v>0.0529425751102494</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.163817140184393</v>
+        <v>2.163817140184394</v>
       </c>
       <c r="H38" t="n">
-        <v>22.16019228691342</v>
+        <v>22.16019228691343</v>
       </c>
       <c r="I38" t="n">
-        <v>83.42056029695888</v>
+        <v>83.42056029695893</v>
       </c>
       <c r="J38" t="n">
-        <v>183.6512750017253</v>
+        <v>183.6512750017254</v>
       </c>
       <c r="K38" t="n">
-        <v>275.2456545457307</v>
+        <v>275.2456545457308</v>
       </c>
       <c r="L38" t="n">
-        <v>341.4665733496489</v>
+        <v>341.466573349649</v>
       </c>
       <c r="M38" t="n">
-        <v>379.9473564164031</v>
+        <v>379.9473564164032</v>
       </c>
       <c r="N38" t="n">
-        <v>386.095301865952</v>
+        <v>386.0953018659521</v>
       </c>
       <c r="O38" t="n">
-        <v>364.5788451782434</v>
+        <v>364.5788451782436</v>
       </c>
       <c r="P38" t="n">
-        <v>311.1596095299412</v>
+        <v>311.1596095299413</v>
       </c>
       <c r="Q38" t="n">
-        <v>233.6679081970875</v>
+        <v>233.6679081970876</v>
       </c>
       <c r="R38" t="n">
         <v>135.922878432108</v>
       </c>
       <c r="S38" t="n">
-        <v>49.3079830819519</v>
+        <v>49.30798308195192</v>
       </c>
       <c r="T38" t="n">
-        <v>9.472109531157184</v>
+        <v>9.472109531157189</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1731053712147514</v>
+        <v>0.1731053712147515</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.157744236844886</v>
+        <v>1.157744236844887</v>
       </c>
       <c r="H39" t="n">
         <v>11.18137197163351</v>
       </c>
       <c r="I39" t="n">
-        <v>39.86093096154543</v>
+        <v>39.86093096154544</v>
       </c>
       <c r="J39" t="n">
         <v>109.3814412538408</v>
@@ -33979,34 +33979,34 @@
         <v>186.9503051224482</v>
       </c>
       <c r="L39" t="n">
-        <v>251.377756337746</v>
+        <v>251.3777563377461</v>
       </c>
       <c r="M39" t="n">
-        <v>293.3459849233731</v>
+        <v>293.3459849233732</v>
       </c>
       <c r="N39" t="n">
-        <v>301.1099802660742</v>
+        <v>301.1099802660743</v>
       </c>
       <c r="O39" t="n">
-        <v>275.4568053338796</v>
+        <v>275.4568053338797</v>
       </c>
       <c r="P39" t="n">
-        <v>221.0783709813713</v>
+        <v>221.0783709813714</v>
       </c>
       <c r="Q39" t="n">
-        <v>147.7850362681297</v>
+        <v>147.7850362681298</v>
       </c>
       <c r="R39" t="n">
-        <v>71.8816991963869</v>
+        <v>71.88169919638693</v>
       </c>
       <c r="S39" t="n">
-        <v>21.50459141683373</v>
+        <v>21.50459141683374</v>
       </c>
       <c r="T39" t="n">
-        <v>4.666521726580921</v>
+        <v>4.666521726580923</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07616738400295307</v>
+        <v>0.0761673840029531</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9706138770212375</v>
+        <v>0.9706138770212379</v>
       </c>
       <c r="H40" t="n">
-        <v>8.629639742970646</v>
+        <v>8.62963974297065</v>
       </c>
       <c r="I40" t="n">
-        <v>29.18900641078413</v>
+        <v>29.18900641078415</v>
       </c>
       <c r="J40" t="n">
-        <v>68.62240110540149</v>
+        <v>68.62240110540152</v>
       </c>
       <c r="K40" t="n">
-        <v>112.767684984831</v>
+        <v>112.7676849848311</v>
       </c>
       <c r="L40" t="n">
-        <v>144.3038122255029</v>
+        <v>144.303812225503</v>
       </c>
       <c r="M40" t="n">
-        <v>152.1481371043381</v>
+        <v>152.1481371043382</v>
       </c>
       <c r="N40" t="n">
         <v>148.5303944718046</v>
       </c>
       <c r="O40" t="n">
-        <v>137.1918596356928</v>
+        <v>137.1918596356929</v>
       </c>
       <c r="P40" t="n">
-        <v>117.3913365444594</v>
+        <v>117.3913365444595</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.27567655675108</v>
+        <v>81.27567655675112</v>
       </c>
       <c r="R40" t="n">
-        <v>43.64232941588218</v>
+        <v>43.64232941588219</v>
       </c>
       <c r="S40" t="n">
-        <v>16.91515274772465</v>
+        <v>16.91515274772466</v>
       </c>
       <c r="T40" t="n">
-        <v>4.147168383636195</v>
+        <v>4.147168383636197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05294257511024938</v>
+        <v>0.0529425751102494</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.163817140184393</v>
+        <v>2.163817140184394</v>
       </c>
       <c r="H41" t="n">
-        <v>22.16019228691342</v>
+        <v>22.16019228691343</v>
       </c>
       <c r="I41" t="n">
-        <v>83.42056029695888</v>
+        <v>83.42056029695893</v>
       </c>
       <c r="J41" t="n">
-        <v>183.6512750017253</v>
+        <v>183.6512750017254</v>
       </c>
       <c r="K41" t="n">
-        <v>275.2456545457307</v>
+        <v>275.2456545457308</v>
       </c>
       <c r="L41" t="n">
-        <v>341.4665733496489</v>
+        <v>341.466573349649</v>
       </c>
       <c r="M41" t="n">
-        <v>379.9473564164031</v>
+        <v>379.9473564164032</v>
       </c>
       <c r="N41" t="n">
-        <v>386.095301865952</v>
+        <v>386.0953018659521</v>
       </c>
       <c r="O41" t="n">
-        <v>364.5788451782434</v>
+        <v>364.5788451782436</v>
       </c>
       <c r="P41" t="n">
-        <v>311.1596095299412</v>
+        <v>311.1596095299413</v>
       </c>
       <c r="Q41" t="n">
-        <v>233.6679081970875</v>
+        <v>233.6679081970876</v>
       </c>
       <c r="R41" t="n">
         <v>135.922878432108</v>
       </c>
       <c r="S41" t="n">
-        <v>49.3079830819519</v>
+        <v>49.30798308195192</v>
       </c>
       <c r="T41" t="n">
-        <v>9.472109531157184</v>
+        <v>9.472109531157189</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1731053712147514</v>
+        <v>0.1731053712147515</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.157744236844886</v>
+        <v>1.157744236844887</v>
       </c>
       <c r="H42" t="n">
         <v>11.18137197163351</v>
       </c>
       <c r="I42" t="n">
-        <v>39.86093096154543</v>
+        <v>39.86093096154544</v>
       </c>
       <c r="J42" t="n">
         <v>109.3814412538408</v>
@@ -34216,34 +34216,34 @@
         <v>186.9503051224482</v>
       </c>
       <c r="L42" t="n">
-        <v>251.377756337746</v>
+        <v>251.3777563377461</v>
       </c>
       <c r="M42" t="n">
-        <v>293.3459849233731</v>
+        <v>293.3459849233732</v>
       </c>
       <c r="N42" t="n">
-        <v>301.1099802660742</v>
+        <v>301.1099802660743</v>
       </c>
       <c r="O42" t="n">
-        <v>275.4568053338796</v>
+        <v>275.4568053338797</v>
       </c>
       <c r="P42" t="n">
-        <v>221.0783709813713</v>
+        <v>221.0783709813714</v>
       </c>
       <c r="Q42" t="n">
-        <v>147.7850362681297</v>
+        <v>147.7850362681298</v>
       </c>
       <c r="R42" t="n">
-        <v>71.8816991963869</v>
+        <v>71.88169919638693</v>
       </c>
       <c r="S42" t="n">
-        <v>21.50459141683373</v>
+        <v>21.50459141683374</v>
       </c>
       <c r="T42" t="n">
-        <v>4.666521726580921</v>
+        <v>4.666521726580923</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07616738400295307</v>
+        <v>0.0761673840029531</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9706138770212375</v>
+        <v>0.9706138770212379</v>
       </c>
       <c r="H43" t="n">
-        <v>8.629639742970646</v>
+        <v>8.62963974297065</v>
       </c>
       <c r="I43" t="n">
-        <v>29.18900641078413</v>
+        <v>29.18900641078415</v>
       </c>
       <c r="J43" t="n">
-        <v>68.62240110540149</v>
+        <v>68.62240110540152</v>
       </c>
       <c r="K43" t="n">
-        <v>112.767684984831</v>
+        <v>112.7676849848311</v>
       </c>
       <c r="L43" t="n">
-        <v>144.3038122255029</v>
+        <v>144.303812225503</v>
       </c>
       <c r="M43" t="n">
-        <v>152.1481371043381</v>
+        <v>152.1481371043382</v>
       </c>
       <c r="N43" t="n">
         <v>148.5303944718046</v>
       </c>
       <c r="O43" t="n">
-        <v>137.1918596356928</v>
+        <v>137.1918596356929</v>
       </c>
       <c r="P43" t="n">
-        <v>117.3913365444594</v>
+        <v>117.3913365444595</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.27567655675108</v>
+        <v>81.27567655675112</v>
       </c>
       <c r="R43" t="n">
-        <v>43.64232941588218</v>
+        <v>43.64232941588219</v>
       </c>
       <c r="S43" t="n">
-        <v>16.91515274772465</v>
+        <v>16.91515274772466</v>
       </c>
       <c r="T43" t="n">
-        <v>4.147168383636195</v>
+        <v>4.147168383636197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05294257511024938</v>
+        <v>0.0529425751102494</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.163817140184393</v>
+        <v>2.163817140184394</v>
       </c>
       <c r="H44" t="n">
-        <v>22.16019228691342</v>
+        <v>22.16019228691343</v>
       </c>
       <c r="I44" t="n">
-        <v>83.42056029695888</v>
+        <v>83.42056029695893</v>
       </c>
       <c r="J44" t="n">
-        <v>183.6512750017253</v>
+        <v>183.6512750017254</v>
       </c>
       <c r="K44" t="n">
-        <v>275.2456545457307</v>
+        <v>275.2456545457308</v>
       </c>
       <c r="L44" t="n">
-        <v>341.4665733496489</v>
+        <v>341.466573349649</v>
       </c>
       <c r="M44" t="n">
-        <v>379.9473564164031</v>
+        <v>379.9473564164032</v>
       </c>
       <c r="N44" t="n">
-        <v>386.095301865952</v>
+        <v>386.0953018659521</v>
       </c>
       <c r="O44" t="n">
-        <v>364.5788451782434</v>
+        <v>364.5788451782436</v>
       </c>
       <c r="P44" t="n">
-        <v>311.1596095299412</v>
+        <v>311.1596095299413</v>
       </c>
       <c r="Q44" t="n">
-        <v>233.6679081970875</v>
+        <v>233.6679081970879</v>
       </c>
       <c r="R44" t="n">
         <v>135.922878432108</v>
       </c>
       <c r="S44" t="n">
-        <v>49.3079830819519</v>
+        <v>49.30798308195192</v>
       </c>
       <c r="T44" t="n">
-        <v>9.472109531157184</v>
+        <v>9.472109531157189</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1731053712147514</v>
+        <v>0.1731053712147515</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,13 +34438,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.157744236844886</v>
+        <v>1.157744236844887</v>
       </c>
       <c r="H45" t="n">
         <v>11.18137197163351</v>
       </c>
       <c r="I45" t="n">
-        <v>39.86093096154543</v>
+        <v>39.86093096154544</v>
       </c>
       <c r="J45" t="n">
         <v>109.3814412538408</v>
@@ -34453,34 +34453,34 @@
         <v>186.9503051224482</v>
       </c>
       <c r="L45" t="n">
-        <v>251.377756337746</v>
+        <v>251.3777563377461</v>
       </c>
       <c r="M45" t="n">
-        <v>293.3459849233731</v>
+        <v>293.3459849233732</v>
       </c>
       <c r="N45" t="n">
-        <v>301.1099802660742</v>
+        <v>301.1099802660743</v>
       </c>
       <c r="O45" t="n">
-        <v>275.4568053338796</v>
+        <v>275.4568053338797</v>
       </c>
       <c r="P45" t="n">
-        <v>221.0783709813713</v>
+        <v>221.0783709813714</v>
       </c>
       <c r="Q45" t="n">
-        <v>147.7850362681297</v>
+        <v>147.7850362681298</v>
       </c>
       <c r="R45" t="n">
-        <v>71.8816991963869</v>
+        <v>71.88169919638693</v>
       </c>
       <c r="S45" t="n">
-        <v>21.50459141683373</v>
+        <v>21.50459141683374</v>
       </c>
       <c r="T45" t="n">
-        <v>4.666521726580921</v>
+        <v>4.666521726580923</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07616738400295307</v>
+        <v>0.0761673840029531</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9706138770212375</v>
+        <v>0.9706138770212379</v>
       </c>
       <c r="H46" t="n">
-        <v>8.629639742970646</v>
+        <v>8.62963974297065</v>
       </c>
       <c r="I46" t="n">
-        <v>29.18900641078413</v>
+        <v>29.18900641078415</v>
       </c>
       <c r="J46" t="n">
-        <v>68.62240110540149</v>
+        <v>68.62240110540152</v>
       </c>
       <c r="K46" t="n">
-        <v>112.767684984831</v>
+        <v>112.7676849848311</v>
       </c>
       <c r="L46" t="n">
-        <v>144.3038122255029</v>
+        <v>144.303812225503</v>
       </c>
       <c r="M46" t="n">
-        <v>152.1481371043381</v>
+        <v>152.1481371043382</v>
       </c>
       <c r="N46" t="n">
         <v>148.5303944718046</v>
       </c>
       <c r="O46" t="n">
-        <v>137.1918596356928</v>
+        <v>137.1918596356929</v>
       </c>
       <c r="P46" t="n">
-        <v>117.3913365444594</v>
+        <v>117.3913365444595</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.27567655675108</v>
+        <v>81.27567655675112</v>
       </c>
       <c r="R46" t="n">
-        <v>43.64232941588218</v>
+        <v>43.64232941588219</v>
       </c>
       <c r="S46" t="n">
-        <v>16.91515274772465</v>
+        <v>16.91515274772466</v>
       </c>
       <c r="T46" t="n">
-        <v>4.147168383636195</v>
+        <v>4.147168383636197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05294257511024938</v>
+        <v>0.0529425751102494</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>453.4520759799034</v>
+        <v>303.9351131224337</v>
       </c>
       <c r="L12" t="n">
         <v>178.4230816471201</v>
@@ -35503,13 +35503,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P12" t="n">
-        <v>300.4836505929792</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.38455350960189</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R12" t="n">
         <v>33.78553351613294</v>
@@ -35576,19 +35576,19 @@
         <v>453.4520759799034</v>
       </c>
       <c r="M13" t="n">
-        <v>99.0437854319386</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="N13" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O13" t="n">
-        <v>132.5096578052252</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P13" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920423</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639433</v>
       </c>
       <c r="L15" t="n">
-        <v>453.4520759799035</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
         <v>211.3885843242576</v>
@@ -35740,13 +35740,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>287.4132234370563</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P15" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.38455350960189</v>
+        <v>95.38455350960186</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35810,19 +35810,19 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799035</v>
+        <v>104.8304408359788</v>
       </c>
       <c r="N16" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="O16" t="n">
-        <v>87.16477557810538</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P16" t="n">
-        <v>82.85598128134626</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q16" t="n">
         <v>193.2504645920423</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N17" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J18" t="n">
-        <v>66.82266174326165</v>
+        <v>66.82266174326163</v>
       </c>
       <c r="K18" t="n">
         <v>127.0390157285253</v>
@@ -35977,10 +35977,10 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P18" t="n">
-        <v>162.3084810155644</v>
+        <v>162.3084810155647</v>
       </c>
       <c r="Q18" t="n">
         <v>453.4520759799034</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>69.17590691325471</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
         <v>453.4520759799034</v>
       </c>
       <c r="M19" t="n">
-        <v>219.9348809797786</v>
+        <v>297.2911902629965</v>
       </c>
       <c r="N19" t="n">
-        <v>453.4520759799034</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P19" t="n">
-        <v>71.4556647890261</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.34794198810391</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>289.7238565327075</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
         <v>197.0138050378653</v>
@@ -36220,7 +36220,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325469</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L22" t="n">
-        <v>219.9348809797786</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799034</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799034</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799034</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P22" t="n">
         <v>71.45566478902609</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>48.87265775299538</v>
+        <v>48.87265775299542</v>
       </c>
       <c r="J23" t="n">
-        <v>154.2313155161387</v>
+        <v>154.2313155161388</v>
       </c>
       <c r="K23" t="n">
-        <v>239.4810537509214</v>
+        <v>239.4810537509215</v>
       </c>
       <c r="L23" t="n">
-        <v>303.1545309170259</v>
+        <v>303.1545309170261</v>
       </c>
       <c r="M23" t="n">
-        <v>342.5160935169712</v>
+        <v>342.5160935169714</v>
       </c>
       <c r="N23" t="n">
-        <v>348.815679031506</v>
+        <v>348.8156790315061</v>
       </c>
       <c r="O23" t="n">
-        <v>327.1878858222193</v>
+        <v>327.1878858222195</v>
       </c>
       <c r="P23" t="n">
-        <v>273.5842477197099</v>
+        <v>273.58424771971</v>
       </c>
       <c r="Q23" t="n">
-        <v>197.5432335924895</v>
+        <v>197.5432335924896</v>
       </c>
       <c r="R23" t="n">
-        <v>100.8902285373115</v>
+        <v>100.8902285373116</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68854421154543</v>
+        <v>47.38279253923417</v>
       </c>
       <c r="J24" t="n">
-        <v>88.77032692050744</v>
+        <v>88.77032692050749</v>
       </c>
       <c r="K24" t="n">
-        <v>164.5510712891148</v>
+        <v>164.5510712891149</v>
       </c>
       <c r="L24" t="n">
-        <v>228.8626696235165</v>
+        <v>228.8626696235166</v>
       </c>
       <c r="M24" t="n">
-        <v>270.2492044110451</v>
+        <v>270.2492044110452</v>
       </c>
       <c r="N24" t="n">
-        <v>279.7669520525325</v>
+        <v>279.7669520525326</v>
       </c>
       <c r="O24" t="n">
-        <v>252.2849156116573</v>
+        <v>252.2849156116575</v>
       </c>
       <c r="P24" t="n">
         <v>199.3075297765427</v>
       </c>
       <c r="Q24" t="n">
-        <v>231.8973520199045</v>
+        <v>125.0379979791513</v>
       </c>
       <c r="R24" t="n">
-        <v>48.20877980224276</v>
+        <v>131.3738855153064</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.98564512149963</v>
+        <v>118.068735861922</v>
       </c>
       <c r="K25" t="n">
-        <v>91.80303053211902</v>
+        <v>341.583443778606</v>
       </c>
       <c r="L25" t="n">
-        <v>502.575853937039</v>
+        <v>502.5758539370391</v>
       </c>
       <c r="M25" t="n">
-        <v>516.2006245425143</v>
+        <v>129.5726972128524</v>
       </c>
       <c r="N25" t="n">
-        <v>529.8349509122447</v>
+        <v>127.7814934962042</v>
       </c>
       <c r="O25" t="n">
         <v>496.2101714334333</v>
       </c>
       <c r="P25" t="n">
-        <v>95.01053588647295</v>
+        <v>410.9258940413292</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.65611379196613</v>
+        <v>209.5586363959046</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>48.87265775299538</v>
+        <v>48.87265775299542</v>
       </c>
       <c r="J26" t="n">
-        <v>154.2313155161387</v>
+        <v>154.2313155161388</v>
       </c>
       <c r="K26" t="n">
-        <v>239.4810537509214</v>
+        <v>239.4810537509215</v>
       </c>
       <c r="L26" t="n">
-        <v>303.1545309170259</v>
+        <v>303.1545309170261</v>
       </c>
       <c r="M26" t="n">
-        <v>342.5160935169712</v>
+        <v>342.5160935169714</v>
       </c>
       <c r="N26" t="n">
-        <v>348.815679031506</v>
+        <v>348.8156790315061</v>
       </c>
       <c r="O26" t="n">
-        <v>327.1878858222193</v>
+        <v>327.1878858222195</v>
       </c>
       <c r="P26" t="n">
-        <v>273.5842477197099</v>
+        <v>273.58424771971</v>
       </c>
       <c r="Q26" t="n">
-        <v>197.5432335924895</v>
+        <v>197.5432335924896</v>
       </c>
       <c r="R26" t="n">
-        <v>100.8902285373115</v>
+        <v>100.8902285373116</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68854421154543</v>
+        <v>47.38279253923417</v>
       </c>
       <c r="J27" t="n">
-        <v>88.77032692050744</v>
+        <v>88.77032692050749</v>
       </c>
       <c r="K27" t="n">
-        <v>164.5510712891148</v>
+        <v>164.5510712891149</v>
       </c>
       <c r="L27" t="n">
-        <v>228.8626696235165</v>
+        <v>228.8626696235166</v>
       </c>
       <c r="M27" t="n">
-        <v>270.2492044110451</v>
+        <v>270.2492044110452</v>
       </c>
       <c r="N27" t="n">
-        <v>279.7669520525325</v>
+        <v>279.7669520525326</v>
       </c>
       <c r="O27" t="n">
-        <v>252.2849156116573</v>
+        <v>252.2849156116575</v>
       </c>
       <c r="P27" t="n">
         <v>199.3075297765427</v>
       </c>
       <c r="Q27" t="n">
-        <v>231.8973520199045</v>
+        <v>125.0379979791513</v>
       </c>
       <c r="R27" t="n">
-        <v>48.20877980224276</v>
+        <v>131.3738855153062</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.98564512149963</v>
+        <v>47.98564512149966</v>
       </c>
       <c r="K28" t="n">
-        <v>341.583443778606</v>
+        <v>91.80303053211908</v>
       </c>
       <c r="L28" t="n">
-        <v>122.3850523298017</v>
+        <v>502.5758539370391</v>
       </c>
       <c r="M28" t="n">
-        <v>547.2853037409551</v>
+        <v>547.2853037409552</v>
       </c>
       <c r="N28" t="n">
-        <v>529.8349509122447</v>
+        <v>529.8349509122448</v>
       </c>
       <c r="O28" t="n">
-        <v>126.7179998369483</v>
+        <v>465.1254922349923</v>
       </c>
       <c r="P28" t="n">
-        <v>410.9258940413291</v>
+        <v>95.01053588647301</v>
       </c>
       <c r="Q28" t="n">
-        <v>209.5586363959046</v>
+        <v>56.65611379196618</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>48.87265775299538</v>
+        <v>48.87265775299542</v>
       </c>
       <c r="J29" t="n">
-        <v>154.2313155161387</v>
+        <v>154.2313155161388</v>
       </c>
       <c r="K29" t="n">
-        <v>239.4810537509214</v>
+        <v>239.4810537509215</v>
       </c>
       <c r="L29" t="n">
-        <v>303.1545309170259</v>
+        <v>303.1545309170261</v>
       </c>
       <c r="M29" t="n">
-        <v>342.5160935169712</v>
+        <v>342.5160935169714</v>
       </c>
       <c r="N29" t="n">
-        <v>348.815679031506</v>
+        <v>348.8156790315061</v>
       </c>
       <c r="O29" t="n">
-        <v>327.1878858222193</v>
+        <v>327.1878858222195</v>
       </c>
       <c r="P29" t="n">
-        <v>273.5842477197099</v>
+        <v>273.58424771971</v>
       </c>
       <c r="Q29" t="n">
-        <v>197.5432335924895</v>
+        <v>197.5432335924896</v>
       </c>
       <c r="R29" t="n">
-        <v>100.890228537312</v>
+        <v>100.8902285373116</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>47.38279253923416</v>
+        <v>24.02719089380714</v>
       </c>
       <c r="J30" t="n">
-        <v>88.77032692050744</v>
+        <v>88.77032692050749</v>
       </c>
       <c r="K30" t="n">
-        <v>164.5510712891148</v>
+        <v>164.5510712891149</v>
       </c>
       <c r="L30" t="n">
-        <v>228.8626696235165</v>
+        <v>228.8626696235166</v>
       </c>
       <c r="M30" t="n">
-        <v>353.4143101241096</v>
+        <v>270.2492044110452</v>
       </c>
       <c r="N30" t="n">
-        <v>279.7669520525325</v>
+        <v>279.7669520525326</v>
       </c>
       <c r="O30" t="n">
-        <v>252.2849156116573</v>
+        <v>252.2849156116575</v>
       </c>
       <c r="P30" t="n">
         <v>199.3075297765427</v>
       </c>
       <c r="Q30" t="n">
-        <v>125.0379979791512</v>
+        <v>125.0379979791513</v>
       </c>
       <c r="R30" t="n">
-        <v>48.20877980224276</v>
+        <v>154.7294871607335</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>126.6944498166722</v>
+        <v>47.98564512149966</v>
       </c>
       <c r="K31" t="n">
-        <v>91.80303053211902</v>
+        <v>91.80303053211908</v>
       </c>
       <c r="L31" t="n">
-        <v>122.3850523298017</v>
+        <v>471.4911747385991</v>
       </c>
       <c r="M31" t="n">
-        <v>547.2853037409551</v>
+        <v>547.2853037409552</v>
       </c>
       <c r="N31" t="n">
-        <v>529.8349509122447</v>
+        <v>529.8349509122448</v>
       </c>
       <c r="O31" t="n">
         <v>496.2101714334333</v>
       </c>
       <c r="P31" t="n">
-        <v>212.5053309961587</v>
+        <v>95.01053588647301</v>
       </c>
       <c r="Q31" t="n">
-        <v>209.5586363959046</v>
+        <v>56.65611379196618</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>48.87265775299538</v>
+        <v>48.87265775299542</v>
       </c>
       <c r="J32" t="n">
-        <v>154.2313155161387</v>
+        <v>154.2313155161388</v>
       </c>
       <c r="K32" t="n">
-        <v>239.4810537509214</v>
+        <v>239.4810537509215</v>
       </c>
       <c r="L32" t="n">
-        <v>303.1545309170259</v>
+        <v>303.1545309170261</v>
       </c>
       <c r="M32" t="n">
-        <v>342.5160935169712</v>
+        <v>342.5160935169714</v>
       </c>
       <c r="N32" t="n">
-        <v>348.815679031506</v>
+        <v>348.8156790315061</v>
       </c>
       <c r="O32" t="n">
-        <v>327.1878858222193</v>
+        <v>327.1878858222195</v>
       </c>
       <c r="P32" t="n">
-        <v>273.5842477197099</v>
+        <v>273.58424771971</v>
       </c>
       <c r="Q32" t="n">
-        <v>197.5432335924895</v>
+        <v>197.5432335924896</v>
       </c>
       <c r="R32" t="n">
-        <v>100.8902285373115</v>
+        <v>100.8902285373116</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68854421154543</v>
+        <v>47.38279253923417</v>
       </c>
       <c r="J33" t="n">
-        <v>88.77032692050744</v>
+        <v>88.77032692050749</v>
       </c>
       <c r="K33" t="n">
-        <v>164.5510712891148</v>
+        <v>164.5510712891149</v>
       </c>
       <c r="L33" t="n">
-        <v>228.8626696235165</v>
+        <v>228.8626696235166</v>
       </c>
       <c r="M33" t="n">
-        <v>377.1085584517983</v>
+        <v>270.2492044110452</v>
       </c>
       <c r="N33" t="n">
-        <v>279.7669520525325</v>
+        <v>279.7669520525326</v>
       </c>
       <c r="O33" t="n">
-        <v>252.2849156116573</v>
+        <v>252.2849156116575</v>
       </c>
       <c r="P33" t="n">
         <v>199.3075297765427</v>
       </c>
       <c r="Q33" t="n">
-        <v>125.0379979791512</v>
+        <v>125.0379979791513</v>
       </c>
       <c r="R33" t="n">
-        <v>48.20877980224276</v>
+        <v>131.3738855153064</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.98564512149963</v>
+        <v>126.6944498166722</v>
       </c>
       <c r="K34" t="n">
-        <v>91.80303053211902</v>
+        <v>341.583443778606</v>
       </c>
       <c r="L34" t="n">
-        <v>471.4911747385975</v>
+        <v>392.1528916090422</v>
       </c>
       <c r="M34" t="n">
-        <v>547.2853037409551</v>
+        <v>547.2853037409552</v>
       </c>
       <c r="N34" t="n">
-        <v>529.8349509122447</v>
+        <v>127.7814934962042</v>
       </c>
       <c r="O34" t="n">
         <v>496.2101714334333</v>
       </c>
       <c r="P34" t="n">
-        <v>95.01053588647295</v>
+        <v>95.01053588647301</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.65611379196613</v>
+        <v>209.5586363959046</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>48.87265775299538</v>
+        <v>48.87265775299542</v>
       </c>
       <c r="J35" t="n">
-        <v>154.2313155161387</v>
+        <v>154.2313155161388</v>
       </c>
       <c r="K35" t="n">
-        <v>239.4810537509214</v>
+        <v>239.4810537509215</v>
       </c>
       <c r="L35" t="n">
-        <v>303.1545309170259</v>
+        <v>303.1545309170261</v>
       </c>
       <c r="M35" t="n">
-        <v>342.5160935169712</v>
+        <v>342.5160935169714</v>
       </c>
       <c r="N35" t="n">
-        <v>348.815679031506</v>
+        <v>348.8156790315061</v>
       </c>
       <c r="O35" t="n">
-        <v>327.1878858222193</v>
+        <v>327.1878858222195</v>
       </c>
       <c r="P35" t="n">
-        <v>273.5842477197099</v>
+        <v>273.58424771971</v>
       </c>
       <c r="Q35" t="n">
-        <v>197.5432335924895</v>
+        <v>197.5432335924896</v>
       </c>
       <c r="R35" t="n">
-        <v>100.8902285373115</v>
+        <v>100.8902285373116</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>24.02719089380771</v>
+        <v>47.38279253923417</v>
       </c>
       <c r="J36" t="n">
-        <v>88.77032692050744</v>
+        <v>88.77032692050749</v>
       </c>
       <c r="K36" t="n">
-        <v>164.5510712891148</v>
+        <v>164.5510712891149</v>
       </c>
       <c r="L36" t="n">
-        <v>228.8626696235165</v>
+        <v>228.8626696235166</v>
       </c>
       <c r="M36" t="n">
-        <v>270.2492044110451</v>
+        <v>270.2492044110452</v>
       </c>
       <c r="N36" t="n">
-        <v>279.7669520525325</v>
+        <v>279.7669520525326</v>
       </c>
       <c r="O36" t="n">
-        <v>252.2849156116573</v>
+        <v>252.2849156116575</v>
       </c>
       <c r="P36" t="n">
         <v>199.3075297765427</v>
       </c>
       <c r="Q36" t="n">
-        <v>125.0379979791512</v>
+        <v>125.0379979791513</v>
       </c>
       <c r="R36" t="n">
-        <v>154.7294871607335</v>
+        <v>131.3738855153064</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.98564512149963</v>
+        <v>126.6944498166722</v>
       </c>
       <c r="K37" t="n">
-        <v>91.80303053211902</v>
+        <v>341.583443778606</v>
       </c>
       <c r="L37" t="n">
-        <v>502.575853937039</v>
+        <v>502.5758539370391</v>
       </c>
       <c r="M37" t="n">
-        <v>129.5726972128523</v>
+        <v>547.2853037409552</v>
       </c>
       <c r="N37" t="n">
-        <v>529.8349509122447</v>
+        <v>529.8349509122448</v>
       </c>
       <c r="O37" t="n">
-        <v>496.2101714334333</v>
+        <v>136.6362742933339</v>
       </c>
       <c r="P37" t="n">
-        <v>410.9258940413291</v>
+        <v>95.01053588647301</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.3686829667725</v>
+        <v>56.65611379196618</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>48.87265775299538</v>
+        <v>48.87265775299542</v>
       </c>
       <c r="J38" t="n">
-        <v>154.2313155161387</v>
+        <v>154.2313155161388</v>
       </c>
       <c r="K38" t="n">
-        <v>239.4810537509214</v>
+        <v>239.4810537509215</v>
       </c>
       <c r="L38" t="n">
-        <v>303.1545309170259</v>
+        <v>303.1545309170261</v>
       </c>
       <c r="M38" t="n">
-        <v>342.5160935169712</v>
+        <v>342.5160935169714</v>
       </c>
       <c r="N38" t="n">
-        <v>348.815679031506</v>
+        <v>348.8156790315061</v>
       </c>
       <c r="O38" t="n">
-        <v>327.1878858222193</v>
+        <v>327.1878858222195</v>
       </c>
       <c r="P38" t="n">
-        <v>273.5842477197099</v>
+        <v>273.58424771971</v>
       </c>
       <c r="Q38" t="n">
-        <v>197.5432335924895</v>
+        <v>197.5432335924896</v>
       </c>
       <c r="R38" t="n">
-        <v>100.8902285373115</v>
+        <v>100.8902285373116</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68854421154543</v>
+        <v>23.68854421154544</v>
       </c>
       <c r="J39" t="n">
-        <v>195.6296809612607</v>
+        <v>88.77032692050749</v>
       </c>
       <c r="K39" t="n">
-        <v>164.5510712891148</v>
+        <v>271.4104253298669</v>
       </c>
       <c r="L39" t="n">
-        <v>228.8626696235165</v>
+        <v>228.8626696235166</v>
       </c>
       <c r="M39" t="n">
-        <v>270.2492044110451</v>
+        <v>270.2492044110452</v>
       </c>
       <c r="N39" t="n">
-        <v>279.7669520525325</v>
+        <v>279.7669520525326</v>
       </c>
       <c r="O39" t="n">
-        <v>252.2849156116573</v>
+        <v>252.2849156116575</v>
       </c>
       <c r="P39" t="n">
         <v>199.3075297765427</v>
       </c>
       <c r="Q39" t="n">
-        <v>125.0379979791512</v>
+        <v>125.0379979791513</v>
       </c>
       <c r="R39" t="n">
-        <v>48.20877980224276</v>
+        <v>48.20877980224279</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>126.6944498166722</v>
+        <v>81.87362862998322</v>
       </c>
       <c r="K40" t="n">
-        <v>91.80303053211902</v>
+        <v>341.583443778606</v>
       </c>
       <c r="L40" t="n">
-        <v>122.3850523298017</v>
+        <v>502.5758539370391</v>
       </c>
       <c r="M40" t="n">
-        <v>547.2853037409551</v>
+        <v>547.2853037409552</v>
       </c>
       <c r="N40" t="n">
-        <v>529.8349509122447</v>
+        <v>127.7814934962042</v>
       </c>
       <c r="O40" t="n">
-        <v>496.2101714334333</v>
+        <v>114.6926721372684</v>
       </c>
       <c r="P40" t="n">
-        <v>212.5053309961582</v>
+        <v>410.9258940413292</v>
       </c>
       <c r="Q40" t="n">
         <v>209.5586363959046</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>48.87265775299538</v>
+        <v>48.87265775299542</v>
       </c>
       <c r="J41" t="n">
-        <v>154.2313155161387</v>
+        <v>154.2313155161388</v>
       </c>
       <c r="K41" t="n">
-        <v>239.4810537509214</v>
+        <v>239.4810537509215</v>
       </c>
       <c r="L41" t="n">
-        <v>303.1545309170259</v>
+        <v>303.1545309170261</v>
       </c>
       <c r="M41" t="n">
-        <v>342.5160935169712</v>
+        <v>342.5160935169714</v>
       </c>
       <c r="N41" t="n">
-        <v>348.815679031506</v>
+        <v>348.8156790315061</v>
       </c>
       <c r="O41" t="n">
-        <v>327.1878858222193</v>
+        <v>327.1878858222195</v>
       </c>
       <c r="P41" t="n">
-        <v>273.5842477197099</v>
+        <v>273.58424771971</v>
       </c>
       <c r="Q41" t="n">
-        <v>197.5432335924895</v>
+        <v>197.5432335924896</v>
       </c>
       <c r="R41" t="n">
-        <v>100.8902285373115</v>
+        <v>100.8902285373116</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68854421154543</v>
+        <v>24.02719089380715</v>
       </c>
       <c r="J42" t="n">
-        <v>195.6296809612607</v>
+        <v>88.77032692050749</v>
       </c>
       <c r="K42" t="n">
-        <v>164.5510712891148</v>
+        <v>164.5510712891149</v>
       </c>
       <c r="L42" t="n">
-        <v>228.8626696235165</v>
+        <v>228.8626696235166</v>
       </c>
       <c r="M42" t="n">
-        <v>270.2492044110451</v>
+        <v>270.2492044110452</v>
       </c>
       <c r="N42" t="n">
-        <v>279.7669520525325</v>
+        <v>279.7669520525326</v>
       </c>
       <c r="O42" t="n">
-        <v>252.2849156116573</v>
+        <v>252.2849156116575</v>
       </c>
       <c r="P42" t="n">
         <v>199.3075297765427</v>
       </c>
       <c r="Q42" t="n">
-        <v>125.0379979791512</v>
+        <v>125.0379979791513</v>
       </c>
       <c r="R42" t="n">
-        <v>48.20877980224276</v>
+        <v>154.7294871607335</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.98564512149963</v>
+        <v>80.54693094105606</v>
       </c>
       <c r="K43" t="n">
-        <v>91.80303053211902</v>
+        <v>341.583443778606</v>
       </c>
       <c r="L43" t="n">
-        <v>471.491174738598</v>
+        <v>122.3850523298018</v>
       </c>
       <c r="M43" t="n">
-        <v>547.2853037409551</v>
+        <v>547.2853037409552</v>
       </c>
       <c r="N43" t="n">
-        <v>529.8349509122447</v>
+        <v>127.7814934962042</v>
       </c>
       <c r="O43" t="n">
         <v>496.2101714334333</v>
       </c>
       <c r="P43" t="n">
-        <v>95.01053588647295</v>
+        <v>410.9258940413292</v>
       </c>
       <c r="Q43" t="n">
-        <v>56.65611379196613</v>
+        <v>209.5586363959046</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>48.87265775299538</v>
+        <v>48.87265775299542</v>
       </c>
       <c r="J44" t="n">
-        <v>154.2313155161387</v>
+        <v>154.2313155161388</v>
       </c>
       <c r="K44" t="n">
-        <v>239.4810537509214</v>
+        <v>239.4810537509215</v>
       </c>
       <c r="L44" t="n">
-        <v>303.1545309170259</v>
+        <v>303.1545309170261</v>
       </c>
       <c r="M44" t="n">
-        <v>342.5160935169712</v>
+        <v>342.5160935169714</v>
       </c>
       <c r="N44" t="n">
-        <v>348.815679031506</v>
+        <v>348.8156790315061</v>
       </c>
       <c r="O44" t="n">
-        <v>327.1878858222193</v>
+        <v>327.1878858222195</v>
       </c>
       <c r="P44" t="n">
-        <v>273.5842477197099</v>
+        <v>273.58424771971</v>
       </c>
       <c r="Q44" t="n">
-        <v>197.5432335924895</v>
+        <v>197.5432335924899</v>
       </c>
       <c r="R44" t="n">
-        <v>100.8902285373115</v>
+        <v>100.8902285373116</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68854421154543</v>
+        <v>23.68854421154544</v>
       </c>
       <c r="J45" t="n">
-        <v>195.6296809612607</v>
+        <v>88.77032692050749</v>
       </c>
       <c r="K45" t="n">
-        <v>164.5510712891148</v>
+        <v>164.5510712891149</v>
       </c>
       <c r="L45" t="n">
-        <v>228.8626696235165</v>
+        <v>228.8626696235166</v>
       </c>
       <c r="M45" t="n">
-        <v>270.2492044110451</v>
+        <v>270.2492044110452</v>
       </c>
       <c r="N45" t="n">
-        <v>279.7669520525325</v>
+        <v>279.7669520525326</v>
       </c>
       <c r="O45" t="n">
-        <v>252.2849156116573</v>
+        <v>252.2849156116575</v>
       </c>
       <c r="P45" t="n">
-        <v>199.3075297765427</v>
+        <v>306.1668838172951</v>
       </c>
       <c r="Q45" t="n">
-        <v>125.0379979791512</v>
+        <v>125.0379979791513</v>
       </c>
       <c r="R45" t="n">
-        <v>48.20877980224276</v>
+        <v>48.20877980224279</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47.98564512149963</v>
+        <v>47.98564512149966</v>
       </c>
       <c r="K46" t="n">
-        <v>146.8564505948625</v>
+        <v>91.80303053211908</v>
       </c>
       <c r="L46" t="n">
-        <v>502.575853937039</v>
+        <v>471.4911747385987</v>
       </c>
       <c r="M46" t="n">
-        <v>547.2853037409551</v>
+        <v>547.2853037409552</v>
       </c>
       <c r="N46" t="n">
-        <v>127.7814934962042</v>
+        <v>529.8349509122448</v>
       </c>
       <c r="O46" t="n">
         <v>496.2101714334333</v>
       </c>
       <c r="P46" t="n">
-        <v>410.9258940413291</v>
+        <v>95.01053588647301</v>
       </c>
       <c r="Q46" t="n">
-        <v>56.65611379196613</v>
+        <v>56.65611379196618</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
